--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373147.0242430636</v>
+        <v>369381.1362142233</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6166429.0546162</v>
+        <v>6166429.054616196</v>
       </c>
     </row>
     <row r="9">
@@ -737,76 +737,76 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C3" t="n">
+      <c r="V3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D3" t="n">
+      <c r="W3" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="X3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>36.39025468426209</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>355.2101901060246</v>
+        <v>187.7520256339052</v>
       </c>
       <c r="E8" t="n">
-        <v>393.6635176571414</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>393.6635176571414</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1220,13 +1220,13 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.53123883647795</v>
+        <v>58.83246482260756</v>
       </c>
       <c r="H9" t="n">
         <v>41.31829566194965</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T9" t="n">
-        <v>72.81975586861883</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U9" t="n">
         <v>174.5731815300314</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>50.13886281296857</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1344,16 +1344,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>4.96053148198107</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>169.757458830267</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>41.42597290995567</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>139.7410726090115</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>64.93575397700542</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>143.4502862042385</v>
       </c>
       <c r="T13" t="n">
         <v>239.9394968498436</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>245.1009877197641</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>116.5690707895939</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>334.026586683402</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4847740906703</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>82.55</v>
       </c>
       <c r="G15" t="n">
-        <v>83.55942219185911</v>
+        <v>83.5594221918591</v>
       </c>
       <c r="H15" t="n">
         <v>31.93259280470972</v>
@@ -1770,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>144.2078070252588</v>
       </c>
       <c r="E16" t="n">
-        <v>11.47829144838866</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>143.4502862042385</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.9394968498436</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.6374702299324</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>250.3139841323516</v>
       </c>
       <c r="W17" t="n">
-        <v>110.4008381890305</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,19 +2004,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>109.7187080854092</v>
       </c>
       <c r="D19" t="n">
-        <v>144.2078070252583</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.1206237950191</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>143.4502862042385</v>
       </c>
       <c r="T19" t="n">
         <v>239.9394968498436</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2086,16 +2086,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>83.61492274426023</v>
+        <v>395.5675334944314</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>41.42597290995568</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>156.9142167899509</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.1206237950191</v>
       </c>
       <c r="H22" t="n">
-        <v>131.2593872577611</v>
+        <v>99.90263476459693</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>63.27194314676787</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>143.4502862042385</v>
       </c>
       <c r="T22" t="n">
-        <v>239.9394968498436</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6042304614578</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.199086968907</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2332,7 +2332,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>383.7065659703265</v>
+        <v>275.7104060831445</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>41.42597290995568</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.9156159444194</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4847740906703</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>41.42597290995568</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.9156159444194</v>
       </c>
       <c r="U26" t="n">
-        <v>28.97845496824672</v>
+        <v>256.4847740906703</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>284.3461350520561</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5675334944314</v>
+        <v>0.4649442152890851</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>41.42597290995568</v>
       </c>
       <c r="T29" t="n">
-        <v>178.6565340665519</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4847740906703</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2888,7 +2888,7 @@
         <v>83.55942219185911</v>
       </c>
       <c r="H30" t="n">
-        <v>31.93259280470973</v>
+        <v>31.93259280470972</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.76981523767612</v>
+        <v>44.76981523767611</v>
       </c>
       <c r="T30" t="n">
         <v>124.9597541782977</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>253.809933620743</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>383.1200155527226</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.6374702299324</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>41.42597290995568</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.9156159444194</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.6374702299324</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>85.16710325908595</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>334.3288561739199</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.1206237950191</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>88.94978141915556</v>
       </c>
       <c r="T37" t="n">
-        <v>216.086880163332</v>
+        <v>239.9394968498436</v>
       </c>
       <c r="U37" t="n">
         <v>275.6042304614578</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>395.5675334944314</v>
       </c>
       <c r="H38" t="n">
-        <v>89.89657662552538</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.42597290995568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4847740906703</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>278.0643409229409</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.286098548103016</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>146.9834777150955</v>
+        <v>163.1206237950191</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>63.27194314676787</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>143.4502862042385</v>
       </c>
       <c r="T40" t="n">
         <v>239.9394968498436</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,13 +3748,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>24.60906248455355</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>54.4889066722693</v>
+        <v>395.5675334944314</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>41.42597290995568</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.9156159444194</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4847740906703</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>144.2078070252583</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.1206237950191</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.2593872577611</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>63.27194314676787</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>29.49368994563223</v>
       </c>
       <c r="T43" t="n">
         <v>239.9394968498436</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>242.3839339317796</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>244.4845249923818</v>
+        <v>395.5675334944314</v>
       </c>
       <c r="H44" t="n">
-        <v>267.6374702299324</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.42597290995568</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.9156159444194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4847740906703</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>20.6638903740855</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4155,7 +4155,7 @@
         <v>131.2593872577611</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>63.27194314676787</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>143.4502862042385</v>
       </c>
       <c r="T46" t="n">
         <v>239.9394968498436</v>
@@ -4194,13 +4194,13 @@
         <v>275.6042304614578</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>5.910143919174931</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064261</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
         <v>56.86656659549119</v>
@@ -4345,13 +4345,13 @@
         <v>44.20705326085427</v>
       </c>
       <c r="O2" t="n">
-        <v>44.20705326085427</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P2" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
         <v>3.305200243802188</v>
@@ -4406,28 +4406,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="O3" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q3" t="n">
         <v>124.3581591730573</v>
@@ -4442,19 +4442,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W3" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X3" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D4" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
         <v>3.305200243802188</v>
@@ -4488,52 +4488,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>83.45630615600527</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L4" t="n">
-        <v>124.3581591730573</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M4" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N4" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O4" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5276858794757</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U4" t="n">
-        <v>81.79535956884203</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V4" t="n">
-        <v>81.79535956884203</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W4" t="n">
-        <v>81.79535956884203</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X4" t="n">
-        <v>81.79535956884203</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.03752655443588</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568152</v>
+        <v>122.8380161568153</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064263</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549121</v>
       </c>
       <c r="E5" t="n">
-        <v>27.13222579419039</v>
+        <v>27.13222579419044</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802236</v>
       </c>
       <c r="I5" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L5" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M5" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N5" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O5" t="n">
         <v>83.45630615600527</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="C6" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="D6" t="n">
         <v>81.79535956884203</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>40.06303325820834</v>
       </c>
-      <c r="D6" t="n">
-        <v>3.305200243802188</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.305200243802188</v>
-      </c>
       <c r="F6" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G6" t="n">
         <v>3.305200243802188</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C7" t="n">
-        <v>45.03752655443588</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D7" t="n">
-        <v>45.03752655443588</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="F7" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.305200243802188</v>
+      </c>
+      <c r="L7" t="n">
         <v>44.20705326085427</v>
-      </c>
-      <c r="K7" t="n">
-        <v>85.10890627790634</v>
-      </c>
-      <c r="L7" t="n">
-        <v>85.10890627790634</v>
       </c>
       <c r="M7" t="n">
         <v>85.10890627790634</v>
       </c>
       <c r="N7" t="n">
-        <v>85.10890627790634</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="O7" t="n">
-        <v>85.10890627790634</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4755,22 +4755,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T7" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1135.407208318439</v>
+        <v>1448.580200779109</v>
       </c>
       <c r="C8" t="n">
-        <v>1101.305139542266</v>
+        <v>1414.478132002936</v>
       </c>
       <c r="D8" t="n">
-        <v>742.5069677179987</v>
+        <v>1224.829621261618</v>
       </c>
       <c r="E8" t="n">
-        <v>344.8670508926033</v>
+        <v>827.1897044362222</v>
       </c>
       <c r="F8" t="n">
-        <v>321.0400253422151</v>
+        <v>429.5497876108268</v>
       </c>
       <c r="G8" t="n">
-        <v>321.0400253422151</v>
+        <v>31.90987078543132</v>
       </c>
       <c r="H8" t="n">
-        <v>31.90987078543131</v>
+        <v>31.90987078543132</v>
       </c>
       <c r="I8" t="n">
-        <v>31.49308141257131</v>
+        <v>31.49308141257132</v>
       </c>
       <c r="J8" t="n">
-        <v>421.2199638931413</v>
+        <v>421.2199638931414</v>
       </c>
       <c r="K8" t="n">
-        <v>810.9468463737113</v>
+        <v>421.2199638931414</v>
       </c>
       <c r="L8" t="n">
-        <v>810.9468463737113</v>
+        <v>421.2199638931414</v>
       </c>
       <c r="M8" t="n">
-        <v>810.9468463737113</v>
+        <v>421.2199638931414</v>
       </c>
       <c r="N8" t="n">
-        <v>810.9468463737113</v>
+        <v>421.2199638931414</v>
       </c>
       <c r="O8" t="n">
-        <v>810.9468463737113</v>
+        <v>626.0462409143692</v>
       </c>
       <c r="P8" t="n">
-        <v>1200.673728854281</v>
+        <v>1015.773123394939</v>
       </c>
       <c r="Q8" t="n">
         <v>1405.500005875509</v>
@@ -4831,25 +4831,25 @@
         <v>1574.654070628566</v>
       </c>
       <c r="S8" t="n">
-        <v>1574.654070628566</v>
+        <v>1491.002196812403</v>
       </c>
       <c r="T8" t="n">
-        <v>1574.654070628566</v>
+        <v>1491.002196812403</v>
       </c>
       <c r="U8" t="n">
-        <v>1574.654070628566</v>
+        <v>1491.002196812403</v>
       </c>
       <c r="V8" t="n">
-        <v>1574.654070628566</v>
+        <v>1491.002196812403</v>
       </c>
       <c r="W8" t="n">
-        <v>1177.01415380317</v>
+        <v>1490.18714626384</v>
       </c>
       <c r="X8" t="n">
-        <v>1161.912094422885</v>
+        <v>1475.085086883555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1157.666374762942</v>
+        <v>1470.839367223612</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>537.6648264038641</v>
+        <v>417.5860541410498</v>
       </c>
       <c r="C9" t="n">
-        <v>431.2083652405064</v>
+        <v>311.129592977692</v>
       </c>
       <c r="D9" t="n">
-        <v>336.1180763870597</v>
+        <v>216.0393041242453</v>
       </c>
       <c r="E9" t="n">
-        <v>241.9976617140134</v>
+        <v>216.0393041242453</v>
       </c>
       <c r="F9" t="n">
-        <v>158.613823330175</v>
+        <v>132.6554657404069</v>
       </c>
       <c r="G9" t="n">
-        <v>73.22873359635884</v>
+        <v>73.22873359635885</v>
       </c>
       <c r="H9" t="n">
-        <v>31.49308141257131</v>
+        <v>31.49308141257132</v>
       </c>
       <c r="I9" t="n">
         <v>57.55675457302891</v>
@@ -4886,22 +4886,22 @@
         <v>382.1150795392413</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1150795392413</v>
+        <v>678.0275275730861</v>
       </c>
       <c r="L9" t="n">
-        <v>382.1150795392413</v>
+        <v>1067.754410053656</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1150795392413</v>
+        <v>1067.754410053656</v>
       </c>
       <c r="N9" t="n">
-        <v>382.1150795392413</v>
+        <v>1067.754410053656</v>
       </c>
       <c r="O9" t="n">
-        <v>678.0275275730859</v>
+        <v>1067.754410053656</v>
       </c>
       <c r="P9" t="n">
-        <v>1067.754410053656</v>
+        <v>1457.481292534226</v>
       </c>
       <c r="Q9" t="n">
         <v>1457.481292534226</v>
@@ -4910,25 +4910,25 @@
         <v>1574.654070628566</v>
       </c>
       <c r="S9" t="n">
-        <v>1574.654070628566</v>
+        <v>1511.198633076949</v>
       </c>
       <c r="T9" t="n">
-        <v>1501.098761670365</v>
+        <v>1381.019989407551</v>
       </c>
       <c r="U9" t="n">
-        <v>1324.762214670333</v>
+        <v>1204.683442407519</v>
       </c>
       <c r="V9" t="n">
-        <v>1125.644696732332</v>
+        <v>1005.565924469518</v>
       </c>
       <c r="W9" t="n">
-        <v>940.3219424655265</v>
+        <v>820.2431702027122</v>
       </c>
       <c r="X9" t="n">
-        <v>785.4545067044065</v>
+        <v>665.3757344415922</v>
       </c>
       <c r="Y9" t="n">
-        <v>658.9687274836273</v>
+        <v>538.8899552208129</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1110.551242024453</v>
+        <v>310.700520920217</v>
       </c>
       <c r="C10" t="n">
-        <v>937.9895305076776</v>
+        <v>310.700520920217</v>
       </c>
       <c r="D10" t="n">
-        <v>772.1115377092003</v>
+        <v>310.700520920217</v>
       </c>
       <c r="E10" t="n">
-        <v>602.3535339599376</v>
+        <v>260.0552049475215</v>
       </c>
       <c r="F10" t="n">
-        <v>425.6464799216938</v>
+        <v>260.0552049475215</v>
       </c>
       <c r="G10" t="n">
         <v>260.0552049475215</v>
@@ -4959,7 +4959,7 @@
         <v>120.153030637896</v>
       </c>
       <c r="I10" t="n">
-        <v>31.49308141257131</v>
+        <v>31.49308141257132</v>
       </c>
       <c r="J10" t="n">
         <v>118.0727665772612</v>
@@ -4968,19 +4968,19 @@
         <v>392.8312211483967</v>
       </c>
       <c r="L10" t="n">
-        <v>782.5581036289667</v>
+        <v>782.5581036289668</v>
       </c>
       <c r="M10" t="n">
-        <v>1058.954401793892</v>
+        <v>1172.284986109537</v>
       </c>
       <c r="N10" t="n">
-        <v>1058.954401793892</v>
+        <v>1172.284986109537</v>
       </c>
       <c r="O10" t="n">
-        <v>1058.954401793892</v>
+        <v>1172.284986109537</v>
       </c>
       <c r="P10" t="n">
-        <v>1406.461295764233</v>
+        <v>1519.791880079878</v>
       </c>
       <c r="Q10" t="n">
         <v>1574.654070628566</v>
@@ -4992,22 +4992,22 @@
         <v>1393.994880631934</v>
       </c>
       <c r="T10" t="n">
-        <v>1393.994880631934</v>
+        <v>1148.11543421039</v>
       </c>
       <c r="U10" t="n">
-        <v>1115.56187988504</v>
+        <v>869.6824334634949</v>
       </c>
       <c r="V10" t="n">
-        <v>1110.551242024453</v>
+        <v>582.7269253339255</v>
       </c>
       <c r="W10" t="n">
-        <v>1110.551242024453</v>
+        <v>310.700520920217</v>
       </c>
       <c r="X10" t="n">
-        <v>1110.551242024453</v>
+        <v>310.700520920217</v>
       </c>
       <c r="Y10" t="n">
-        <v>1110.551242024453</v>
+        <v>310.700520920217</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1091.224365083231</v>
+        <v>915.3844564717259</v>
       </c>
       <c r="C11" t="n">
-        <v>653.0818922666544</v>
+        <v>915.3844564717259</v>
       </c>
       <c r="D11" t="n">
-        <v>217.1721074410989</v>
+        <v>479.4746716461704</v>
       </c>
       <c r="E11" t="n">
-        <v>217.1721074410989</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="F11" t="n">
-        <v>217.1721074410989</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="G11" t="n">
-        <v>217.1721074410989</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="H11" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="I11" t="n">
-        <v>114.6148551045027</v>
+        <v>114.6148551045032</v>
       </c>
       <c r="J11" t="n">
-        <v>267.2311295548512</v>
+        <v>267.2311295548517</v>
       </c>
       <c r="K11" t="n">
-        <v>495.9633632680253</v>
+        <v>495.9633632680258</v>
       </c>
       <c r="L11" t="n">
-        <v>779.7259250768692</v>
+        <v>779.7259250768697</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.46645028142</v>
+        <v>1095.466450281421</v>
       </c>
       <c r="N11" t="n">
-        <v>1416.315987280336</v>
+        <v>1416.315987280337</v>
       </c>
       <c r="O11" t="n">
         <v>1719.285106846706</v>
       </c>
       <c r="P11" t="n">
-        <v>1977.862240958291</v>
+        <v>1977.862240958292</v>
       </c>
       <c r="Q11" t="n">
         <v>2172.042899967114</v>
       </c>
       <c r="R11" t="n">
-        <v>2284.996340223279</v>
+        <v>2284.99634022328</v>
       </c>
       <c r="S11" t="n">
-        <v>2284.996340223279</v>
+        <v>2243.151923142516</v>
       </c>
       <c r="T11" t="n">
-        <v>2284.996340223279</v>
+        <v>2243.151923142516</v>
       </c>
       <c r="U11" t="n">
-        <v>2284.996340223279</v>
+        <v>2101.999324547555</v>
       </c>
       <c r="V11" t="n">
-        <v>1922.379390157106</v>
+        <v>1739.382374481382</v>
       </c>
       <c r="W11" t="n">
-        <v>1517.523935568139</v>
+        <v>1334.526919892415</v>
       </c>
       <c r="X11" t="n">
-        <v>1517.523935568139</v>
+        <v>915.3844564717259</v>
       </c>
       <c r="Y11" t="n">
-        <v>1517.523935568139</v>
+        <v>915.3844564717259</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>162.3585278111008</v>
       </c>
       <c r="G12" t="n">
-        <v>77.95507105164712</v>
+        <v>77.95507105164714</v>
       </c>
       <c r="H12" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="I12" t="n">
-        <v>78.82480861874355</v>
+        <v>78.82480861874356</v>
       </c>
       <c r="J12" t="n">
         <v>169.7220161552227</v>
       </c>
       <c r="K12" t="n">
-        <v>325.07982172927</v>
+        <v>325.0798217292701</v>
       </c>
       <c r="L12" t="n">
-        <v>533.9775636675922</v>
+        <v>533.9775636675924</v>
       </c>
       <c r="M12" t="n">
-        <v>777.7513754396733</v>
+        <v>777.7513754396736</v>
       </c>
       <c r="N12" t="n">
         <v>1027.977154637746</v>
       </c>
       <c r="O12" t="n">
-        <v>1256.884857029992</v>
+        <v>1256.884857029993</v>
       </c>
       <c r="P12" t="n">
         <v>1440.603469059296</v>
       </c>
       <c r="Q12" t="n">
-        <v>1563.414495852002</v>
+        <v>1563.414495852003</v>
       </c>
       <c r="R12" t="n">
         <v>1676.222894545641</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>819.0212554773796</v>
+        <v>925.991296310311</v>
       </c>
       <c r="C13" t="n">
-        <v>819.0212554773796</v>
+        <v>753.4295847935359</v>
       </c>
       <c r="D13" t="n">
-        <v>753.4295847935357</v>
+        <v>753.4295847935359</v>
       </c>
       <c r="E13" t="n">
-        <v>583.671581044273</v>
+        <v>583.6715810442731</v>
       </c>
       <c r="F13" t="n">
-        <v>406.9645270060292</v>
+        <v>406.9645270060293</v>
       </c>
       <c r="G13" t="n">
-        <v>242.1962201423736</v>
+        <v>242.1962201423737</v>
       </c>
       <c r="H13" t="n">
         <v>109.6109804880695</v>
       </c>
       <c r="I13" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="J13" t="n">
         <v>189.3055988589577</v>
@@ -5205,16 +5205,16 @@
         <v>557.7752675810091</v>
       </c>
       <c r="L13" t="n">
-        <v>785.9514899985978</v>
+        <v>1095.903239820338</v>
       </c>
       <c r="M13" t="n">
-        <v>1351.488084203859</v>
+        <v>1351.48808420386</v>
       </c>
       <c r="N13" t="n">
         <v>1474.91851204442</v>
       </c>
       <c r="O13" t="n">
-        <v>1588.926489948836</v>
+        <v>1588.926489948837</v>
       </c>
       <c r="P13" t="n">
         <v>2033.986904503199</v>
@@ -5223,28 +5223,28 @@
         <v>2269.720680427319</v>
       </c>
       <c r="R13" t="n">
-        <v>2284.996340223279</v>
+        <v>2284.99634022328</v>
       </c>
       <c r="S13" t="n">
-        <v>2284.996340223279</v>
+        <v>2140.097061229099</v>
       </c>
       <c r="T13" t="n">
-        <v>2042.633212092124</v>
+        <v>1897.733933097944</v>
       </c>
       <c r="U13" t="n">
-        <v>2042.633212092124</v>
+        <v>1897.733933097944</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.677703962554</v>
+        <v>1610.778424968375</v>
       </c>
       <c r="W13" t="n">
-        <v>1483.651299548846</v>
+        <v>1363.201669695886</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.259544882259</v>
+        <v>1117.809915029298</v>
       </c>
       <c r="Y13" t="n">
-        <v>1010.839874196367</v>
+        <v>1117.809915029298</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1460.998422213623</v>
+        <v>1255.017737072244</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.251886062518</v>
+        <v>816.8752642556674</v>
       </c>
       <c r="D14" t="n">
-        <v>907.3421012369627</v>
+        <v>816.8752642556674</v>
       </c>
       <c r="E14" t="n">
-        <v>473.5673563952578</v>
+        <v>383.1005194139626</v>
       </c>
       <c r="F14" t="n">
-        <v>45.69992680446558</v>
+        <v>383.1005194139626</v>
       </c>
       <c r="G14" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="H14" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="I14" t="n">
-        <v>114.6148551045026</v>
+        <v>114.6148551045029</v>
       </c>
       <c r="J14" t="n">
-        <v>267.2311295548511</v>
+        <v>267.2311295548513</v>
       </c>
       <c r="K14" t="n">
-        <v>495.9633632680252</v>
+        <v>495.9633632680255</v>
       </c>
       <c r="L14" t="n">
-        <v>779.725925076869</v>
+        <v>779.7259250768694</v>
       </c>
       <c r="M14" t="n">
         <v>1095.46645028142</v>
       </c>
       <c r="N14" t="n">
-        <v>1416.315987280336</v>
+        <v>1416.315987280337</v>
       </c>
       <c r="O14" t="n">
         <v>1719.285106846706</v>
       </c>
       <c r="P14" t="n">
-        <v>1977.862240958291</v>
+        <v>1977.862240958292</v>
       </c>
       <c r="Q14" t="n">
-        <v>2172.042899967114</v>
+        <v>2172.042899967115</v>
       </c>
       <c r="R14" t="n">
-        <v>2284.996340223279</v>
+        <v>2284.99634022328</v>
       </c>
       <c r="S14" t="n">
-        <v>2284.996340223279</v>
+        <v>2284.99634022328</v>
       </c>
       <c r="T14" t="n">
-        <v>2284.996340223279</v>
+        <v>2284.99634022328</v>
       </c>
       <c r="U14" t="n">
-        <v>2284.996340223279</v>
+        <v>2025.920810838764</v>
       </c>
       <c r="V14" t="n">
-        <v>2284.996340223279</v>
+        <v>1663.303860772591</v>
       </c>
       <c r="W14" t="n">
-        <v>1880.140885634313</v>
+        <v>1663.303860772591</v>
       </c>
       <c r="X14" t="n">
-        <v>1460.998422213623</v>
+        <v>1663.303860772591</v>
       </c>
       <c r="Y14" t="n">
-        <v>1460.998422213623</v>
+        <v>1255.017737072244</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>162.3585278111008</v>
       </c>
       <c r="G15" t="n">
-        <v>77.95507105164712</v>
+        <v>77.95507105164714</v>
       </c>
       <c r="H15" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="I15" t="n">
-        <v>78.82480861874355</v>
+        <v>78.82480861874356</v>
       </c>
       <c r="J15" t="n">
         <v>169.7220161552227</v>
       </c>
       <c r="K15" t="n">
-        <v>378.153720172855</v>
+        <v>325.0798217292701</v>
       </c>
       <c r="L15" t="n">
-        <v>587.0514621111773</v>
+        <v>533.9775636675924</v>
       </c>
       <c r="M15" t="n">
-        <v>830.8252738832584</v>
+        <v>777.7513754396736</v>
       </c>
       <c r="N15" t="n">
-        <v>1081.051053081331</v>
+        <v>1027.977154637746</v>
       </c>
       <c r="O15" t="n">
-        <v>1309.958755473577</v>
+        <v>1256.884857029993</v>
       </c>
       <c r="P15" t="n">
-        <v>1493.677367502881</v>
+        <v>1440.603469059296</v>
       </c>
       <c r="Q15" t="n">
-        <v>1616.488394295588</v>
+        <v>1563.414495852003</v>
       </c>
       <c r="R15" t="n">
         <v>1676.222894545641</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.7338649059691</v>
+        <v>540.6331439001499</v>
       </c>
       <c r="C16" t="n">
-        <v>223.1721533891941</v>
+        <v>368.0714323833748</v>
       </c>
       <c r="D16" t="n">
-        <v>57.29416059071676</v>
+        <v>222.4069808427094</v>
       </c>
       <c r="E16" t="n">
-        <v>45.69992680446558</v>
+        <v>222.4069808427094</v>
       </c>
       <c r="F16" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="G16" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="H16" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="I16" t="n">
-        <v>45.69992680446558</v>
+        <v>45.6999268044656</v>
       </c>
       <c r="J16" t="n">
-        <v>189.3055988589577</v>
+        <v>102.7259136942678</v>
       </c>
       <c r="K16" t="n">
-        <v>321.4170202292426</v>
+        <v>471.1955824163193</v>
       </c>
       <c r="L16" t="n">
-        <v>859.5449924685712</v>
+        <v>591.1136728876868</v>
       </c>
       <c r="M16" t="n">
-        <v>1425.081586673833</v>
+        <v>1005.412337448052</v>
       </c>
       <c r="N16" t="n">
-        <v>1990.618180879094</v>
+        <v>1570.948931653313</v>
       </c>
       <c r="O16" t="n">
         <v>2104.626158783511</v>
       </c>
       <c r="P16" t="n">
-        <v>2202.179679367531</v>
+        <v>2202.179679367532</v>
       </c>
       <c r="Q16" t="n">
         <v>2269.720680427319</v>
       </c>
       <c r="R16" t="n">
-        <v>2284.996340223279</v>
+        <v>2284.99634022328</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.097061229099</v>
+        <v>2284.99634022328</v>
       </c>
       <c r="T16" t="n">
-        <v>1897.733933097944</v>
+        <v>2042.633212092124</v>
       </c>
       <c r="U16" t="n">
-        <v>1619.345821520714</v>
+        <v>1764.245100514894</v>
       </c>
       <c r="V16" t="n">
-        <v>1332.390313391144</v>
+        <v>1477.289592385325</v>
       </c>
       <c r="W16" t="n">
-        <v>1060.363908977436</v>
+        <v>1205.263187971616</v>
       </c>
       <c r="X16" t="n">
-        <v>814.9721543108481</v>
+        <v>959.8714333050289</v>
       </c>
       <c r="Y16" t="n">
-        <v>587.5524836249563</v>
+        <v>732.4517626191371</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>919.7521844465978</v>
+        <v>1623.867808308436</v>
       </c>
       <c r="C17" t="n">
-        <v>481.6097116300211</v>
+        <v>1185.72533549186</v>
       </c>
       <c r="D17" t="n">
-        <v>45.69992680446558</v>
+        <v>749.8155506663041</v>
       </c>
       <c r="E17" t="n">
-        <v>45.69992680446558</v>
+        <v>316.0408058245993</v>
       </c>
       <c r="F17" t="n">
-        <v>45.69992680446558</v>
+        <v>316.0408058245993</v>
       </c>
       <c r="G17" t="n">
-        <v>45.69992680446558</v>
+        <v>316.0408058245993</v>
       </c>
       <c r="H17" t="n">
         <v>45.69992680446558</v>
       </c>
       <c r="I17" t="n">
-        <v>114.6148551045027</v>
+        <v>114.6148551045025</v>
       </c>
       <c r="J17" t="n">
-        <v>267.2311295548512</v>
+        <v>267.231129554851</v>
       </c>
       <c r="K17" t="n">
-        <v>495.9633632680253</v>
+        <v>495.9633632680251</v>
       </c>
       <c r="L17" t="n">
-        <v>779.7259250768692</v>
+        <v>779.725925076869</v>
       </c>
       <c r="M17" t="n">
         <v>1095.46645028142</v>
       </c>
       <c r="N17" t="n">
-        <v>1416.315987280337</v>
+        <v>1416.315987280336</v>
       </c>
       <c r="O17" t="n">
         <v>1719.285106846706</v>
@@ -5551,16 +5551,16 @@
         <v>2284.996340223279</v>
       </c>
       <c r="V17" t="n">
-        <v>2284.996340223279</v>
+        <v>2032.153932008783</v>
       </c>
       <c r="W17" t="n">
-        <v>2173.480342052541</v>
+        <v>2032.153932008783</v>
       </c>
       <c r="X17" t="n">
-        <v>1754.337878631852</v>
+        <v>2032.153932008783</v>
       </c>
       <c r="Y17" t="n">
-        <v>1346.051754931505</v>
+        <v>1623.867808308436</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>169.7220161552227</v>
       </c>
       <c r="K18" t="n">
-        <v>378.1537201728548</v>
+        <v>325.0798217292701</v>
       </c>
       <c r="L18" t="n">
-        <v>587.0514621111772</v>
+        <v>533.9775636675923</v>
       </c>
       <c r="M18" t="n">
-        <v>830.8252738832583</v>
+        <v>777.7513754396734</v>
       </c>
       <c r="N18" t="n">
-        <v>1081.051053081331</v>
+        <v>1027.977154637746</v>
       </c>
       <c r="O18" t="n">
-        <v>1309.958755473577</v>
+        <v>1256.884857029993</v>
       </c>
       <c r="P18" t="n">
-        <v>1493.677367502881</v>
+        <v>1440.603469059296</v>
       </c>
       <c r="Q18" t="n">
-        <v>1616.488394295588</v>
+        <v>1563.414495852003</v>
       </c>
       <c r="R18" t="n">
         <v>1676.222894545641</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>540.6331439001494</v>
+        <v>667.7602693196775</v>
       </c>
       <c r="C19" t="n">
-        <v>368.0714323833744</v>
+        <v>556.9332914556278</v>
       </c>
       <c r="D19" t="n">
-        <v>222.4069808427094</v>
+        <v>556.9332914556278</v>
       </c>
       <c r="E19" t="n">
-        <v>222.4069808427094</v>
+        <v>387.175287706365</v>
       </c>
       <c r="F19" t="n">
-        <v>45.69992680446558</v>
+        <v>210.4682336681212</v>
       </c>
       <c r="G19" t="n">
         <v>45.69992680446558</v>
@@ -5676,19 +5676,19 @@
         <v>102.7259136942678</v>
       </c>
       <c r="K19" t="n">
-        <v>196.4371278451837</v>
+        <v>471.1955824163193</v>
       </c>
       <c r="L19" t="n">
-        <v>439.8757432427896</v>
+        <v>1009.323554655648</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.412337448051</v>
+        <v>1135.760367300737</v>
       </c>
       <c r="N19" t="n">
-        <v>1570.948931653313</v>
+        <v>1259.190795141298</v>
       </c>
       <c r="O19" t="n">
-        <v>2104.626158783511</v>
+        <v>1757.119264813169</v>
       </c>
       <c r="P19" t="n">
         <v>2202.179679367531</v>
@@ -5700,25 +5700,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S19" t="n">
-        <v>2284.996340223279</v>
+        <v>2140.097061229099</v>
       </c>
       <c r="T19" t="n">
-        <v>2042.633212092124</v>
+        <v>1897.733933097944</v>
       </c>
       <c r="U19" t="n">
-        <v>1764.245100514894</v>
+        <v>1619.345821520714</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.289592385324</v>
+        <v>1332.390313391144</v>
       </c>
       <c r="W19" t="n">
-        <v>1205.263187971616</v>
+        <v>1332.390313391144</v>
       </c>
       <c r="X19" t="n">
-        <v>959.8714333050284</v>
+        <v>1086.998558724556</v>
       </c>
       <c r="Y19" t="n">
-        <v>732.4517626191366</v>
+        <v>859.5788880386647</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1865.85387680259</v>
+        <v>1317.180309608637</v>
       </c>
       <c r="C20" t="n">
-        <v>1427.711403986013</v>
+        <v>879.0378367920607</v>
       </c>
       <c r="D20" t="n">
-        <v>991.8016191604579</v>
+        <v>879.0378367920607</v>
       </c>
       <c r="E20" t="n">
-        <v>558.026874318753</v>
+        <v>445.2630919503559</v>
       </c>
       <c r="F20" t="n">
-        <v>130.1594447279608</v>
+        <v>445.2630919503559</v>
       </c>
       <c r="G20" t="n">
         <v>45.69992680446558</v>
@@ -5749,10 +5749,10 @@
         <v>45.69992680446558</v>
       </c>
       <c r="I20" t="n">
-        <v>114.6148551045028</v>
+        <v>114.6148551045027</v>
       </c>
       <c r="J20" t="n">
-        <v>267.2311295548513</v>
+        <v>267.2311295548512</v>
       </c>
       <c r="K20" t="n">
         <v>495.9633632680254</v>
@@ -5779,25 +5779,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S20" t="n">
-        <v>2284.996340223279</v>
+        <v>2243.151923142516</v>
       </c>
       <c r="T20" t="n">
-        <v>2284.996340223279</v>
+        <v>2243.151923142516</v>
       </c>
       <c r="U20" t="n">
-        <v>2284.996340223279</v>
+        <v>2243.151923142516</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.996340223279</v>
+        <v>1880.534973076342</v>
       </c>
       <c r="W20" t="n">
-        <v>2284.996340223279</v>
+        <v>1475.679518487376</v>
       </c>
       <c r="X20" t="n">
-        <v>1865.85387680259</v>
+        <v>1317.180309608637</v>
       </c>
       <c r="Y20" t="n">
-        <v>1865.85387680259</v>
+        <v>1317.180309608637</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>45.69992680446558</v>
       </c>
       <c r="I21" t="n">
-        <v>78.82480861874355</v>
+        <v>104.8884817792011</v>
       </c>
       <c r="J21" t="n">
-        <v>169.7220161552227</v>
+        <v>195.7856893156803</v>
       </c>
       <c r="K21" t="n">
-        <v>325.07982172927</v>
+        <v>351.1434948897275</v>
       </c>
       <c r="L21" t="n">
-        <v>533.9775636675922</v>
+        <v>560.0412368280499</v>
       </c>
       <c r="M21" t="n">
-        <v>777.7513754396733</v>
+        <v>803.815048600131</v>
       </c>
       <c r="N21" t="n">
-        <v>1027.977154637746</v>
+        <v>1054.040827798203</v>
       </c>
       <c r="O21" t="n">
-        <v>1256.884857029992</v>
+        <v>1282.94853019045</v>
       </c>
       <c r="P21" t="n">
-        <v>1440.603469059296</v>
+        <v>1466.667142219753</v>
       </c>
       <c r="Q21" t="n">
-        <v>1616.488394295588</v>
+        <v>1589.47816901246</v>
       </c>
       <c r="R21" t="n">
         <v>1676.222894545641</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>689.5185311099319</v>
+        <v>883.4887477037119</v>
       </c>
       <c r="C22" t="n">
-        <v>689.5185311099319</v>
+        <v>710.9270361869368</v>
       </c>
       <c r="D22" t="n">
-        <v>689.5185311099319</v>
+        <v>545.0490433884595</v>
       </c>
       <c r="E22" t="n">
-        <v>519.7605273606691</v>
+        <v>375.2910396391968</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0534733224254</v>
+        <v>375.2910396391968</v>
       </c>
       <c r="G22" t="n">
-        <v>178.2851664587697</v>
+        <v>210.5227327755411</v>
       </c>
       <c r="H22" t="n">
-        <v>45.69992680446558</v>
+        <v>109.6109804880695</v>
       </c>
       <c r="I22" t="n">
         <v>45.69992680446558</v>
       </c>
       <c r="J22" t="n">
-        <v>102.7259136942678</v>
+        <v>189.3055988589577</v>
       </c>
       <c r="K22" t="n">
-        <v>196.4371278451836</v>
+        <v>557.7752675810091</v>
       </c>
       <c r="L22" t="n">
-        <v>439.8757432427898</v>
+        <v>1095.903239820338</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.412337448051</v>
+        <v>1222.340052465427</v>
       </c>
       <c r="N22" t="n">
-        <v>1570.948931653313</v>
+        <v>1345.770480305988</v>
       </c>
       <c r="O22" t="n">
-        <v>2104.626158783511</v>
+        <v>1588.926489948836</v>
       </c>
       <c r="P22" t="n">
-        <v>2202.179679367531</v>
+        <v>2033.986904503199</v>
       </c>
       <c r="Q22" t="n">
         <v>2269.720680427319</v>
@@ -5940,22 +5940,22 @@
         <v>2140.097061229099</v>
       </c>
       <c r="T22" t="n">
-        <v>1897.733933097944</v>
+        <v>2140.097061229099</v>
       </c>
       <c r="U22" t="n">
-        <v>1619.345821520714</v>
+        <v>1861.708949651869</v>
       </c>
       <c r="V22" t="n">
-        <v>1332.390313391144</v>
+        <v>1574.753441522299</v>
       </c>
       <c r="W22" t="n">
-        <v>1060.363908977436</v>
+        <v>1302.727037108591</v>
       </c>
       <c r="X22" t="n">
-        <v>814.9721543108481</v>
+        <v>1302.727037108591</v>
       </c>
       <c r="Y22" t="n">
-        <v>689.5185311099319</v>
+        <v>1075.307366422699</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1745.041121323429</v>
+        <v>2074.096563950933</v>
       </c>
       <c r="C23" t="n">
-        <v>1745.041121323429</v>
+        <v>1635.954091134357</v>
       </c>
       <c r="D23" t="n">
-        <v>1309.131336497874</v>
+        <v>1200.044306308801</v>
       </c>
       <c r="E23" t="n">
-        <v>875.3565916561688</v>
+        <v>766.2695614670961</v>
       </c>
       <c r="F23" t="n">
-        <v>447.4891620653765</v>
+        <v>338.4021318763038</v>
       </c>
       <c r="G23" t="n">
         <v>59.90677219635985</v>
@@ -5989,25 +5989,25 @@
         <v>128.8217004963969</v>
       </c>
       <c r="J23" t="n">
-        <v>281.4379749467454</v>
+        <v>716.6926623996634</v>
       </c>
       <c r="K23" t="n">
-        <v>510.1702086599195</v>
+        <v>945.4248961128374</v>
       </c>
       <c r="L23" t="n">
-        <v>793.9327704687635</v>
+        <v>1229.187457921681</v>
       </c>
       <c r="M23" t="n">
-        <v>1109.673295673314</v>
+        <v>1544.927983126232</v>
       </c>
       <c r="N23" t="n">
-        <v>1430.522832672231</v>
+        <v>1865.777520125149</v>
       </c>
       <c r="O23" t="n">
-        <v>1733.4919522386</v>
+        <v>2168.746639691518</v>
       </c>
       <c r="P23" t="n">
-        <v>1992.069086350186</v>
+        <v>2427.323773803103</v>
       </c>
       <c r="Q23" t="n">
         <v>2713.23110480877</v>
@@ -6016,25 +6016,25 @@
         <v>2995.338609817993</v>
       </c>
       <c r="S23" t="n">
-        <v>2995.338609817993</v>
+        <v>2953.494192737229</v>
       </c>
       <c r="T23" t="n">
-        <v>2995.338609817993</v>
+        <v>2741.458217035795</v>
       </c>
       <c r="U23" t="n">
-        <v>2995.338609817993</v>
+        <v>2482.38268765128</v>
       </c>
       <c r="V23" t="n">
-        <v>2995.338609817993</v>
+        <v>2482.38268765128</v>
       </c>
       <c r="W23" t="n">
-        <v>2590.483155229026</v>
+        <v>2482.38268765128</v>
       </c>
       <c r="X23" t="n">
-        <v>2171.340691808337</v>
+        <v>2482.38268765128</v>
       </c>
       <c r="Y23" t="n">
-        <v>2171.340691808337</v>
+        <v>2074.096563950933</v>
       </c>
     </row>
     <row r="24">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1106.076134500682</v>
+        <v>1106.076134500683</v>
       </c>
       <c r="C25" t="n">
-        <v>933.5144229839071</v>
+        <v>933.5144229839075</v>
       </c>
       <c r="D25" t="n">
-        <v>767.6364301854298</v>
+        <v>767.6364301854303</v>
       </c>
       <c r="E25" t="n">
-        <v>597.878426436167</v>
+        <v>597.8784264361675</v>
       </c>
       <c r="F25" t="n">
-        <v>421.1713723979233</v>
+        <v>421.1713723979236</v>
       </c>
       <c r="G25" t="n">
-        <v>256.4030655342676</v>
+        <v>256.403065534268</v>
       </c>
       <c r="H25" t="n">
-        <v>123.8178258799635</v>
+        <v>123.8178258799638</v>
       </c>
       <c r="I25" t="n">
         <v>59.90677219635985</v>
       </c>
       <c r="J25" t="n">
-        <v>116.9327590861621</v>
+        <v>203.512444250852</v>
       </c>
       <c r="K25" t="n">
-        <v>244.0464242141475</v>
+        <v>571.9821129729033</v>
       </c>
       <c r="L25" t="n">
-        <v>782.1743964534762</v>
+        <v>691.900203444271</v>
       </c>
       <c r="M25" t="n">
-        <v>1368.095076279478</v>
+        <v>1277.820883270273</v>
       </c>
       <c r="N25" t="n">
-        <v>1933.784307277684</v>
+        <v>1843.510114268479</v>
       </c>
       <c r="O25" t="n">
-        <v>2467.461534407882</v>
+        <v>2377.187341398676</v>
       </c>
       <c r="P25" t="n">
-        <v>2912.521948962244</v>
+        <v>2744.329174097912</v>
       </c>
       <c r="Q25" t="n">
         <v>2980.062950022032</v>
@@ -6183,7 +6183,7 @@
         <v>2329.688091115427</v>
       </c>
       <c r="V25" t="n">
-        <v>2042.732582985857</v>
+        <v>2042.732582985858</v>
       </c>
       <c r="W25" t="n">
         <v>1770.706178572149</v>
@@ -6192,7 +6192,7 @@
         <v>1525.314423905561</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.894753219669</v>
+        <v>1297.89475321967</v>
       </c>
     </row>
     <row r="26">
@@ -6226,49 +6226,49 @@
         <v>128.8217004963969</v>
       </c>
       <c r="J26" t="n">
-        <v>716.6926623996634</v>
+        <v>431.0746131909695</v>
       </c>
       <c r="K26" t="n">
-        <v>945.4248961128374</v>
+        <v>659.8068469041435</v>
       </c>
       <c r="L26" t="n">
-        <v>1229.187457921681</v>
+        <v>943.5694087129874</v>
       </c>
       <c r="M26" t="n">
-        <v>1544.927983126232</v>
+        <v>1259.309933917538</v>
       </c>
       <c r="N26" t="n">
-        <v>1865.777520125149</v>
+        <v>1580.159470916455</v>
       </c>
       <c r="O26" t="n">
-        <v>2168.746639691518</v>
+        <v>1883.128590482824</v>
       </c>
       <c r="P26" t="n">
-        <v>2519.050445799947</v>
+        <v>2141.70572459441</v>
       </c>
       <c r="Q26" t="n">
-        <v>2713.23110480877</v>
+        <v>2882.385169561827</v>
       </c>
       <c r="R26" t="n">
         <v>2995.338609817993</v>
       </c>
       <c r="S26" t="n">
-        <v>2995.338609817993</v>
+        <v>2953.494192737229</v>
       </c>
       <c r="T26" t="n">
-        <v>2995.338609817993</v>
+        <v>2741.458217035795</v>
       </c>
       <c r="U26" t="n">
-        <v>2966.0674431834</v>
+        <v>2482.38268765128</v>
       </c>
       <c r="V26" t="n">
-        <v>2603.450493117226</v>
+        <v>2482.38268765128</v>
       </c>
       <c r="W26" t="n">
-        <v>2603.450493117226</v>
+        <v>2195.16436941688</v>
       </c>
       <c r="X26" t="n">
-        <v>2603.450493117226</v>
+        <v>2195.16436941688</v>
       </c>
       <c r="Y26" t="n">
         <v>2195.16436941688</v>
@@ -6302,31 +6302,31 @@
         <v>59.90677219635985</v>
       </c>
       <c r="I27" t="n">
-        <v>93.03165401063782</v>
+        <v>119.0953271710954</v>
       </c>
       <c r="J27" t="n">
-        <v>183.928861547117</v>
+        <v>209.9925347075746</v>
       </c>
       <c r="K27" t="n">
-        <v>339.2866671211643</v>
+        <v>365.3503402816219</v>
       </c>
       <c r="L27" t="n">
-        <v>548.1844090594866</v>
+        <v>574.2480822199441</v>
       </c>
       <c r="M27" t="n">
-        <v>791.9582208315677</v>
+        <v>818.0218939920252</v>
       </c>
       <c r="N27" t="n">
-        <v>1095.257898473225</v>
+        <v>1068.247673190098</v>
       </c>
       <c r="O27" t="n">
-        <v>1324.165600865472</v>
+        <v>1297.155375582344</v>
       </c>
       <c r="P27" t="n">
-        <v>1507.884212894775</v>
+        <v>1480.873987611648</v>
       </c>
       <c r="Q27" t="n">
-        <v>1630.695239687482</v>
+        <v>1603.685014404354</v>
       </c>
       <c r="R27" t="n">
         <v>1690.429739937535</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1106.076134500682</v>
+        <v>1106.076134500683</v>
       </c>
       <c r="C28" t="n">
-        <v>933.5144229839074</v>
+        <v>933.5144229839075</v>
       </c>
       <c r="D28" t="n">
-        <v>767.6364301854301</v>
+        <v>767.6364301854303</v>
       </c>
       <c r="E28" t="n">
-        <v>597.8784264361673</v>
+        <v>597.8784264361675</v>
       </c>
       <c r="F28" t="n">
-        <v>421.1713723979235</v>
+        <v>421.1713723979236</v>
       </c>
       <c r="G28" t="n">
         <v>256.403065534268</v>
@@ -6387,13 +6387,13 @@
         <v>116.9327590861621</v>
       </c>
       <c r="K28" t="n">
-        <v>244.0464242141478</v>
+        <v>244.0464242141475</v>
       </c>
       <c r="L28" t="n">
-        <v>782.1743964534764</v>
+        <v>782.1743964534762</v>
       </c>
       <c r="M28" t="n">
-        <v>1368.095076279479</v>
+        <v>1368.095076279478</v>
       </c>
       <c r="N28" t="n">
         <v>1933.784307277684</v>
@@ -6420,7 +6420,7 @@
         <v>2329.688091115427</v>
       </c>
       <c r="V28" t="n">
-        <v>2042.732582985857</v>
+        <v>2042.732582985858</v>
       </c>
       <c r="W28" t="n">
         <v>1770.706178572149</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>897.6124101588268</v>
+        <v>932.2936304761455</v>
       </c>
       <c r="C29" t="n">
-        <v>459.4699373422501</v>
+        <v>494.1511576595688</v>
       </c>
       <c r="D29" t="n">
-        <v>459.4699373422501</v>
+        <v>494.1511576595688</v>
       </c>
       <c r="E29" t="n">
-        <v>459.4699373422501</v>
+        <v>60.37641281786398</v>
       </c>
       <c r="F29" t="n">
-        <v>459.4699373422501</v>
+        <v>60.37641281786398</v>
       </c>
       <c r="G29" t="n">
         <v>59.90677219635985</v>
@@ -6463,28 +6463,28 @@
         <v>128.8217004963969</v>
       </c>
       <c r="J29" t="n">
-        <v>431.0746131909697</v>
+        <v>716.6926623996634</v>
       </c>
       <c r="K29" t="n">
-        <v>659.8068469041438</v>
+        <v>1037.151568109682</v>
       </c>
       <c r="L29" t="n">
-        <v>943.5694087129875</v>
+        <v>1320.914129918526</v>
       </c>
       <c r="M29" t="n">
-        <v>1259.309933917538</v>
+        <v>1636.654655123076</v>
       </c>
       <c r="N29" t="n">
-        <v>1580.159470916455</v>
+        <v>1957.504192121993</v>
       </c>
       <c r="O29" t="n">
-        <v>1883.128590482824</v>
+        <v>2260.473311688362</v>
       </c>
       <c r="P29" t="n">
-        <v>2141.70572459441</v>
+        <v>2519.050445799947</v>
       </c>
       <c r="Q29" t="n">
-        <v>2882.385169561827</v>
+        <v>2713.23110480877</v>
       </c>
       <c r="R29" t="n">
         <v>2995.338609817993</v>
@@ -6493,22 +6493,22 @@
         <v>2953.494192737229</v>
       </c>
       <c r="T29" t="n">
-        <v>2773.03304721546</v>
+        <v>2953.494192737229</v>
       </c>
       <c r="U29" t="n">
-        <v>2513.957517830944</v>
+        <v>2953.494192737229</v>
       </c>
       <c r="V29" t="n">
-        <v>2151.340567764771</v>
+        <v>2590.877242671056</v>
       </c>
       <c r="W29" t="n">
-        <v>2151.340567764771</v>
+        <v>2186.021788082089</v>
       </c>
       <c r="X29" t="n">
-        <v>1732.198104344081</v>
+        <v>1766.8793246614</v>
       </c>
       <c r="Y29" t="n">
-        <v>1323.911980643735</v>
+        <v>1358.593200961053</v>
       </c>
     </row>
     <row r="30">
@@ -6600,7 +6600,7 @@
         <v>1106.076134500682</v>
       </c>
       <c r="C31" t="n">
-        <v>933.5144229839071</v>
+        <v>933.514422983907</v>
       </c>
       <c r="D31" t="n">
         <v>767.6364301854298</v>
@@ -6615,7 +6615,7 @@
         <v>256.4030655342676</v>
       </c>
       <c r="H31" t="n">
-        <v>123.8178258799638</v>
+        <v>123.8178258799635</v>
       </c>
       <c r="I31" t="n">
         <v>59.90677219635985</v>
@@ -6624,19 +6624,19 @@
         <v>203.512444250852</v>
       </c>
       <c r="K31" t="n">
-        <v>297.2236584017678</v>
+        <v>571.9821129729033</v>
       </c>
       <c r="L31" t="n">
-        <v>835.3516306410964</v>
+        <v>691.900203444271</v>
       </c>
       <c r="M31" t="n">
-        <v>1421.272310467099</v>
+        <v>1277.820883270273</v>
       </c>
       <c r="N31" t="n">
-        <v>1986.961541465304</v>
+        <v>1843.510114268479</v>
       </c>
       <c r="O31" t="n">
-        <v>2520.638768595502</v>
+        <v>2377.187341398676</v>
       </c>
       <c r="P31" t="n">
         <v>2744.329174097912</v>
@@ -6660,7 +6660,7 @@
         <v>2042.732582985857</v>
       </c>
       <c r="W31" t="n">
-        <v>1770.706178572149</v>
+        <v>1770.706178572148</v>
       </c>
       <c r="X31" t="n">
         <v>1525.314423905561</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2182.591118970709</v>
+        <v>2065.942083291123</v>
       </c>
       <c r="C32" t="n">
-        <v>1744.448646154132</v>
+        <v>1627.799610474546</v>
       </c>
       <c r="D32" t="n">
-        <v>1308.538861328577</v>
+        <v>1191.889825648991</v>
       </c>
       <c r="E32" t="n">
-        <v>874.7641164868719</v>
+        <v>758.1150808072859</v>
       </c>
       <c r="F32" t="n">
-        <v>446.8966868960796</v>
+        <v>330.2476512164936</v>
       </c>
       <c r="G32" t="n">
-        <v>59.90677219635985</v>
+        <v>330.2476512164936</v>
       </c>
       <c r="H32" t="n">
         <v>59.90677219635985</v>
@@ -6700,25 +6700,25 @@
         <v>128.8217004963969</v>
       </c>
       <c r="J32" t="n">
-        <v>281.4379749467454</v>
+        <v>716.6926623996634</v>
       </c>
       <c r="K32" t="n">
-        <v>510.1702086599195</v>
+        <v>945.4248961128374</v>
       </c>
       <c r="L32" t="n">
-        <v>793.9327704687635</v>
+        <v>1229.187457921681</v>
       </c>
       <c r="M32" t="n">
-        <v>1535.279076398717</v>
+        <v>1544.927983126232</v>
       </c>
       <c r="N32" t="n">
-        <v>2126.65825687505</v>
+        <v>1865.777520125149</v>
       </c>
       <c r="O32" t="n">
-        <v>2429.627376441419</v>
+        <v>2168.746639691518</v>
       </c>
       <c r="P32" t="n">
-        <v>2688.204510553004</v>
+        <v>2427.323773803103</v>
       </c>
       <c r="Q32" t="n">
         <v>2882.385169561827</v>
@@ -6730,22 +6730,22 @@
         <v>2953.494192737229</v>
       </c>
       <c r="T32" t="n">
-        <v>2953.494192737229</v>
+        <v>2741.458217035795</v>
       </c>
       <c r="U32" t="n">
-        <v>2953.494192737229</v>
+        <v>2741.458217035795</v>
       </c>
       <c r="V32" t="n">
-        <v>2590.877242671056</v>
+        <v>2741.458217035795</v>
       </c>
       <c r="W32" t="n">
-        <v>2590.877242671056</v>
+        <v>2741.458217035795</v>
       </c>
       <c r="X32" t="n">
-        <v>2590.877242671056</v>
+        <v>2322.315753615106</v>
       </c>
       <c r="Y32" t="n">
-        <v>2182.591118970709</v>
+        <v>2322.315753615106</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>119.0953271710954</v>
       </c>
       <c r="J33" t="n">
-        <v>209.9925347075746</v>
+        <v>237.0027599907021</v>
       </c>
       <c r="K33" t="n">
-        <v>365.3503402816219</v>
+        <v>392.3605655647494</v>
       </c>
       <c r="L33" t="n">
-        <v>574.2480822199441</v>
+        <v>601.2583075030717</v>
       </c>
       <c r="M33" t="n">
-        <v>818.0218939920252</v>
+        <v>845.0321192751528</v>
       </c>
       <c r="N33" t="n">
-        <v>1068.247673190098</v>
+        <v>1095.257898473225</v>
       </c>
       <c r="O33" t="n">
-        <v>1297.155375582344</v>
+        <v>1324.165600865472</v>
       </c>
       <c r="P33" t="n">
-        <v>1480.873987611648</v>
+        <v>1507.884212894775</v>
       </c>
       <c r="Q33" t="n">
-        <v>1603.685014404354</v>
+        <v>1630.695239687482</v>
       </c>
       <c r="R33" t="n">
         <v>1690.429739937535</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1106.076134500683</v>
+        <v>1106.076134500682</v>
       </c>
       <c r="C34" t="n">
-        <v>933.5144229839076</v>
+        <v>933.514422983907</v>
       </c>
       <c r="D34" t="n">
-        <v>767.6364301854303</v>
+        <v>767.6364301854298</v>
       </c>
       <c r="E34" t="n">
-        <v>597.8784264361675</v>
+        <v>597.878426436167</v>
       </c>
       <c r="F34" t="n">
-        <v>421.1713723979237</v>
+        <v>421.1713723979234</v>
       </c>
       <c r="G34" t="n">
         <v>256.4030655342679</v>
@@ -6858,10 +6858,10 @@
         <v>59.90677219635985</v>
       </c>
       <c r="J34" t="n">
-        <v>116.9327590861621</v>
+        <v>203.512444250852</v>
       </c>
       <c r="K34" t="n">
-        <v>244.0464242141475</v>
+        <v>571.9821129729033</v>
       </c>
       <c r="L34" t="n">
         <v>782.1743964534762</v>
@@ -6894,16 +6894,16 @@
         <v>2329.688091115427</v>
       </c>
       <c r="V34" t="n">
-        <v>2042.732582985858</v>
+        <v>2042.732582985857</v>
       </c>
       <c r="W34" t="n">
-        <v>1770.706178572149</v>
+        <v>1770.706178572148</v>
       </c>
       <c r="X34" t="n">
-        <v>1525.314423905562</v>
+        <v>1525.314423905561</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.89475321967</v>
+        <v>1297.894753219669</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1353.526929288303</v>
+        <v>1179.818020240947</v>
       </c>
       <c r="C35" t="n">
-        <v>915.3844564717259</v>
+        <v>1179.818020240947</v>
       </c>
       <c r="D35" t="n">
-        <v>479.4746716461704</v>
+        <v>743.9082354153916</v>
       </c>
       <c r="E35" t="n">
-        <v>45.69992680446558</v>
+        <v>743.9082354153916</v>
       </c>
       <c r="F35" t="n">
-        <v>45.69992680446558</v>
+        <v>316.0408058245994</v>
       </c>
       <c r="G35" t="n">
-        <v>45.69992680446558</v>
+        <v>316.0408058245994</v>
       </c>
       <c r="H35" t="n">
         <v>45.69992680446558</v>
       </c>
       <c r="I35" t="n">
-        <v>114.6148551045029</v>
+        <v>114.6148551045027</v>
       </c>
       <c r="J35" t="n">
-        <v>267.2311295548513</v>
+        <v>267.2311295548511</v>
       </c>
       <c r="K35" t="n">
-        <v>495.9633632680254</v>
+        <v>495.9633632680253</v>
       </c>
       <c r="L35" t="n">
-        <v>779.7259250768692</v>
+        <v>779.725925076869</v>
       </c>
       <c r="M35" t="n">
         <v>1095.46645028142</v>
       </c>
       <c r="N35" t="n">
-        <v>1416.315987280337</v>
+        <v>1416.315987280336</v>
       </c>
       <c r="O35" t="n">
         <v>1719.285106846706</v>
       </c>
       <c r="P35" t="n">
-        <v>1977.862240958292</v>
+        <v>1977.862240958291</v>
       </c>
       <c r="Q35" t="n">
         <v>2172.042899967114</v>
@@ -6967,22 +6967,22 @@
         <v>2284.996340223279</v>
       </c>
       <c r="T35" t="n">
-        <v>2198.9689631939</v>
+        <v>2284.996340223279</v>
       </c>
       <c r="U35" t="n">
-        <v>2198.9689631939</v>
+        <v>2284.996340223279</v>
       </c>
       <c r="V35" t="n">
-        <v>2198.9689631939</v>
+        <v>1922.379390157106</v>
       </c>
       <c r="W35" t="n">
-        <v>2198.9689631939</v>
+        <v>1517.523935568139</v>
       </c>
       <c r="X35" t="n">
-        <v>1779.82649977321</v>
+        <v>1179.818020240947</v>
       </c>
       <c r="Y35" t="n">
-        <v>1779.82649977321</v>
+        <v>1179.818020240947</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>564.7266961087472</v>
+        <v>722.8112842541051</v>
       </c>
       <c r="C37" t="n">
-        <v>392.1649845919721</v>
+        <v>722.8112842541051</v>
       </c>
       <c r="D37" t="n">
-        <v>392.1649845919721</v>
+        <v>556.9332914556278</v>
       </c>
       <c r="E37" t="n">
-        <v>222.4069808427094</v>
+        <v>387.175287706365</v>
       </c>
       <c r="F37" t="n">
-        <v>45.69992680446558</v>
+        <v>210.4682336681212</v>
       </c>
       <c r="G37" t="n">
         <v>45.69992680446558</v>
@@ -7095,25 +7095,25 @@
         <v>45.69992680446558</v>
       </c>
       <c r="J37" t="n">
-        <v>189.3055988589577</v>
+        <v>102.7259136942678</v>
       </c>
       <c r="K37" t="n">
-        <v>557.7752675810091</v>
+        <v>196.4371278451836</v>
       </c>
       <c r="L37" t="n">
-        <v>691.3522176042388</v>
+        <v>734.5651000845123</v>
       </c>
       <c r="M37" t="n">
-        <v>1256.888811809501</v>
+        <v>861.0019127296017</v>
       </c>
       <c r="N37" t="n">
-        <v>1822.425406014762</v>
+        <v>1426.538506934863</v>
       </c>
       <c r="O37" t="n">
-        <v>1936.433383919178</v>
+        <v>1960.215734065061</v>
       </c>
       <c r="P37" t="n">
-        <v>2033.986904503199</v>
+        <v>2202.179679367531</v>
       </c>
       <c r="Q37" t="n">
         <v>2269.720680427319</v>
@@ -7122,25 +7122,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S37" t="n">
-        <v>2284.996340223279</v>
+        <v>2195.148076163526</v>
       </c>
       <c r="T37" t="n">
-        <v>2066.726764300722</v>
+        <v>1952.784948032371</v>
       </c>
       <c r="U37" t="n">
-        <v>1788.338652723492</v>
+        <v>1674.396836455141</v>
       </c>
       <c r="V37" t="n">
-        <v>1501.383144593922</v>
+        <v>1387.441328325571</v>
       </c>
       <c r="W37" t="n">
-        <v>1229.356740180214</v>
+        <v>1387.441328325571</v>
       </c>
       <c r="X37" t="n">
-        <v>983.9649855136261</v>
+        <v>1142.049573658984</v>
       </c>
       <c r="Y37" t="n">
-        <v>756.5453148277343</v>
+        <v>914.6299029730922</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1397.709889236919</v>
+        <v>1745.04773919943</v>
       </c>
       <c r="C38" t="n">
-        <v>1397.709889236919</v>
+        <v>1306.905266382853</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.709889236919</v>
+        <v>1306.905266382853</v>
       </c>
       <c r="E38" t="n">
-        <v>963.9351443952141</v>
+        <v>873.1305215411481</v>
       </c>
       <c r="F38" t="n">
-        <v>536.0677148044219</v>
+        <v>445.2630919503559</v>
       </c>
       <c r="G38" t="n">
-        <v>136.5045496585316</v>
+        <v>45.69992680446558</v>
       </c>
       <c r="H38" t="n">
         <v>45.69992680446558</v>
@@ -7201,25 +7201,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S38" t="n">
-        <v>2243.151923142516</v>
+        <v>2284.996340223279</v>
       </c>
       <c r="T38" t="n">
-        <v>2243.151923142516</v>
+        <v>2284.996340223279</v>
       </c>
       <c r="U38" t="n">
-        <v>2243.151923142516</v>
+        <v>2025.920810838764</v>
       </c>
       <c r="V38" t="n">
-        <v>2243.151923142516</v>
+        <v>2025.920810838764</v>
       </c>
       <c r="W38" t="n">
-        <v>2243.151923142516</v>
+        <v>2025.920810838764</v>
       </c>
       <c r="X38" t="n">
-        <v>1824.009459721827</v>
+        <v>1745.04773919943</v>
       </c>
       <c r="Y38" t="n">
-        <v>1824.009459721827</v>
+        <v>1745.04773919943</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1150.182976562428</v>
+        <v>541.4095308847899</v>
       </c>
       <c r="C39" t="n">
-        <v>1043.72651539907</v>
+        <v>434.9530697214322</v>
       </c>
       <c r="D39" t="n">
-        <v>948.6362265456235</v>
+        <v>339.8627808679855</v>
       </c>
       <c r="E39" t="n">
-        <v>854.5158118725772</v>
+        <v>245.7423661949392</v>
       </c>
       <c r="F39" t="n">
-        <v>771.1319734887388</v>
+        <v>162.3585278111008</v>
       </c>
       <c r="G39" t="n">
-        <v>686.7285167292852</v>
+        <v>77.95507105164712</v>
       </c>
       <c r="H39" t="n">
-        <v>654.4733724821036</v>
+        <v>45.69992680446558</v>
       </c>
       <c r="I39" t="n">
-        <v>713.6619274568393</v>
+        <v>104.8884817792011</v>
       </c>
       <c r="J39" t="n">
-        <v>804.5591349933185</v>
+        <v>195.7856893156803</v>
       </c>
       <c r="K39" t="n">
-        <v>959.9169405673658</v>
+        <v>351.1434948897275</v>
       </c>
       <c r="L39" t="n">
-        <v>1168.814682505688</v>
+        <v>560.0412368280499</v>
       </c>
       <c r="M39" t="n">
-        <v>1412.588494277769</v>
+        <v>803.815048600131</v>
       </c>
       <c r="N39" t="n">
-        <v>1662.814273475842</v>
+        <v>1054.040827798203</v>
       </c>
       <c r="O39" t="n">
-        <v>1891.721975868088</v>
+        <v>1282.94853019045</v>
       </c>
       <c r="P39" t="n">
-        <v>2075.440587897392</v>
+        <v>1466.667142219753</v>
       </c>
       <c r="Q39" t="n">
-        <v>2198.251614690098</v>
+        <v>1616.488394295588</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.996340223279</v>
+        <v>1676.222894545641</v>
       </c>
       <c r="S39" t="n">
-        <v>2239.774304629667</v>
+        <v>1631.000858952029</v>
       </c>
       <c r="T39" t="n">
-        <v>2113.552330712194</v>
+        <v>1504.778885034556</v>
       </c>
       <c r="U39" t="n">
-        <v>1937.280364828897</v>
+        <v>1328.506919151259</v>
       </c>
       <c r="V39" t="n">
-        <v>1738.162846890896</v>
+        <v>1129.389401213258</v>
       </c>
       <c r="W39" t="n">
-        <v>1552.84009262409</v>
+        <v>944.0666469464522</v>
       </c>
       <c r="X39" t="n">
-        <v>1397.97265686297</v>
+        <v>789.1992111853323</v>
       </c>
       <c r="Y39" t="n">
-        <v>1271.486877642191</v>
+        <v>662.713431964553</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>540.6331439001494</v>
+        <v>623.1535355918609</v>
       </c>
       <c r="C40" t="n">
-        <v>540.6331439001494</v>
+        <v>623.1535355918609</v>
       </c>
       <c r="D40" t="n">
-        <v>540.6331439001494</v>
+        <v>620.8443451392316</v>
       </c>
       <c r="E40" t="n">
-        <v>370.8751401508867</v>
+        <v>451.0863413899689</v>
       </c>
       <c r="F40" t="n">
-        <v>194.1680861126429</v>
+        <v>274.3792873517251</v>
       </c>
       <c r="G40" t="n">
-        <v>45.69992680446558</v>
+        <v>109.6109804880695</v>
       </c>
       <c r="H40" t="n">
-        <v>45.69992680446558</v>
+        <v>109.6109804880695</v>
       </c>
       <c r="I40" t="n">
         <v>45.69992680446558</v>
       </c>
       <c r="J40" t="n">
-        <v>189.3055988589577</v>
+        <v>102.7259136942678</v>
       </c>
       <c r="K40" t="n">
-        <v>283.0168130098735</v>
+        <v>471.1955824163192</v>
       </c>
       <c r="L40" t="n">
-        <v>402.9349034812411</v>
+        <v>973.5747971973208</v>
       </c>
       <c r="M40" t="n">
-        <v>968.4714976865026</v>
+        <v>1100.01160984241</v>
       </c>
       <c r="N40" t="n">
-        <v>1534.008091891764</v>
+        <v>1223.442037682971</v>
       </c>
       <c r="O40" t="n">
-        <v>1648.01606979618</v>
+        <v>1757.119264813169</v>
       </c>
       <c r="P40" t="n">
-        <v>2033.986904503199</v>
+        <v>2202.179679367531</v>
       </c>
       <c r="Q40" t="n">
         <v>2269.720680427319</v>
@@ -7359,25 +7359,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S40" t="n">
-        <v>2284.996340223279</v>
+        <v>2140.097061229099</v>
       </c>
       <c r="T40" t="n">
-        <v>2042.633212092124</v>
+        <v>1897.733933097944</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.245100514894</v>
+        <v>1619.345821520714</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.289592385324</v>
+        <v>1332.390313391144</v>
       </c>
       <c r="W40" t="n">
-        <v>1205.263187971616</v>
+        <v>1060.363908977436</v>
       </c>
       <c r="X40" t="n">
-        <v>959.8714333050284</v>
+        <v>814.9721543108481</v>
       </c>
       <c r="Y40" t="n">
-        <v>732.4517626191366</v>
+        <v>814.9721543108481</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1408.566228957262</v>
+        <v>1772.040418056567</v>
       </c>
       <c r="C41" t="n">
-        <v>970.4237561406849</v>
+        <v>1333.89794523999</v>
       </c>
       <c r="D41" t="n">
-        <v>534.5139713151293</v>
+        <v>897.9881604144346</v>
       </c>
       <c r="E41" t="n">
-        <v>100.7392264734245</v>
+        <v>873.1305215411481</v>
       </c>
       <c r="F41" t="n">
-        <v>100.7392264734245</v>
+        <v>445.2630919503559</v>
       </c>
       <c r="G41" t="n">
         <v>45.69992680446558</v>
@@ -7408,28 +7408,28 @@
         <v>45.69992680446558</v>
       </c>
       <c r="I41" t="n">
-        <v>114.6148551045027</v>
+        <v>114.6148551045029</v>
       </c>
       <c r="J41" t="n">
-        <v>267.231129554851</v>
+        <v>267.2311295548513</v>
       </c>
       <c r="K41" t="n">
-        <v>495.9633632680251</v>
+        <v>495.9633632680254</v>
       </c>
       <c r="L41" t="n">
-        <v>779.725925076869</v>
+        <v>779.7259250768692</v>
       </c>
       <c r="M41" t="n">
         <v>1095.46645028142</v>
       </c>
       <c r="N41" t="n">
-        <v>1416.315987280336</v>
+        <v>1416.315987280337</v>
       </c>
       <c r="O41" t="n">
         <v>1719.285106846706</v>
       </c>
       <c r="P41" t="n">
-        <v>1977.862240958291</v>
+        <v>1977.862240958292</v>
       </c>
       <c r="Q41" t="n">
         <v>2172.042899967114</v>
@@ -7441,22 +7441,22 @@
         <v>2243.151923142516</v>
       </c>
       <c r="T41" t="n">
-        <v>2243.151923142516</v>
+        <v>2031.115947441082</v>
       </c>
       <c r="U41" t="n">
-        <v>2243.151923142516</v>
+        <v>1772.040418056567</v>
       </c>
       <c r="V41" t="n">
-        <v>2243.151923142516</v>
+        <v>1772.040418056567</v>
       </c>
       <c r="W41" t="n">
-        <v>2243.151923142516</v>
+        <v>1772.040418056567</v>
       </c>
       <c r="X41" t="n">
-        <v>2243.151923142516</v>
+        <v>1772.040418056567</v>
       </c>
       <c r="Y41" t="n">
-        <v>1834.865799442169</v>
+        <v>1772.040418056567</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1150.182976562428</v>
+        <v>541.4095308847899</v>
       </c>
       <c r="C42" t="n">
-        <v>1043.72651539907</v>
+        <v>434.9530697214322</v>
       </c>
       <c r="D42" t="n">
-        <v>948.6362265456235</v>
+        <v>339.8627808679855</v>
       </c>
       <c r="E42" t="n">
-        <v>854.5158118725772</v>
+        <v>245.7423661949392</v>
       </c>
       <c r="F42" t="n">
-        <v>771.1319734887388</v>
+        <v>162.3585278111008</v>
       </c>
       <c r="G42" t="n">
-        <v>686.7285167292852</v>
+        <v>77.95507105164712</v>
       </c>
       <c r="H42" t="n">
-        <v>654.4733724821036</v>
+        <v>45.69992680446558</v>
       </c>
       <c r="I42" t="n">
-        <v>687.5982542963817</v>
+        <v>104.8884817792011</v>
       </c>
       <c r="J42" t="n">
-        <v>778.4954618328608</v>
+        <v>195.7856893156803</v>
       </c>
       <c r="K42" t="n">
-        <v>933.8532674069081</v>
+        <v>351.1434948897275</v>
       </c>
       <c r="L42" t="n">
-        <v>1142.75100934523</v>
+        <v>560.0412368280499</v>
       </c>
       <c r="M42" t="n">
-        <v>1386.524821117312</v>
+        <v>803.815048600131</v>
       </c>
       <c r="N42" t="n">
-        <v>1636.750600315384</v>
+        <v>1054.040827798203</v>
       </c>
       <c r="O42" t="n">
-        <v>1865.658302707631</v>
+        <v>1282.94853019045</v>
       </c>
       <c r="P42" t="n">
-        <v>2049.376914736934</v>
+        <v>1466.667142219753</v>
       </c>
       <c r="Q42" t="n">
-        <v>2172.18794152964</v>
+        <v>1589.47816901246</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.996340223279</v>
+        <v>1676.222894545641</v>
       </c>
       <c r="S42" t="n">
-        <v>2239.774304629667</v>
+        <v>1631.000858952029</v>
       </c>
       <c r="T42" t="n">
-        <v>2113.552330712194</v>
+        <v>1504.778885034556</v>
       </c>
       <c r="U42" t="n">
-        <v>1937.280364828897</v>
+        <v>1328.506919151259</v>
       </c>
       <c r="V42" t="n">
-        <v>1738.162846890896</v>
+        <v>1129.389401213258</v>
       </c>
       <c r="W42" t="n">
-        <v>1552.84009262409</v>
+        <v>944.0666469464522</v>
       </c>
       <c r="X42" t="n">
-        <v>1397.97265686297</v>
+        <v>789.1992111853323</v>
       </c>
       <c r="Y42" t="n">
-        <v>1271.486877642191</v>
+        <v>662.713431964553</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>540.6331439001494</v>
+        <v>756.2332925610481</v>
       </c>
       <c r="C43" t="n">
-        <v>368.0714323833744</v>
+        <v>583.671581044273</v>
       </c>
       <c r="D43" t="n">
-        <v>368.0714323833744</v>
+        <v>583.671581044273</v>
       </c>
       <c r="E43" t="n">
-        <v>222.4069808427094</v>
+        <v>583.671581044273</v>
       </c>
       <c r="F43" t="n">
-        <v>45.69992680446558</v>
+        <v>406.9645270060292</v>
       </c>
       <c r="G43" t="n">
-        <v>45.69992680446558</v>
+        <v>242.1962201423736</v>
       </c>
       <c r="H43" t="n">
-        <v>45.69992680446558</v>
+        <v>109.6109804880695</v>
       </c>
       <c r="I43" t="n">
         <v>45.69992680446558</v>
@@ -7572,22 +7572,22 @@
         <v>189.3055988589577</v>
       </c>
       <c r="K43" t="n">
-        <v>319.9576527714222</v>
+        <v>557.7752675810091</v>
       </c>
       <c r="L43" t="n">
-        <v>439.8757432427898</v>
+        <v>1095.903239820338</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.412337448051</v>
+        <v>1351.488084203859</v>
       </c>
       <c r="N43" t="n">
-        <v>1570.948931653313</v>
+        <v>1474.91851204442</v>
       </c>
       <c r="O43" t="n">
-        <v>2104.626158783511</v>
+        <v>1588.926489948836</v>
       </c>
       <c r="P43" t="n">
-        <v>2202.179679367531</v>
+        <v>2033.986904503199</v>
       </c>
       <c r="Q43" t="n">
         <v>2269.720680427319</v>
@@ -7596,25 +7596,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S43" t="n">
-        <v>2284.996340223279</v>
+        <v>2255.20473421759</v>
       </c>
       <c r="T43" t="n">
-        <v>2042.633212092124</v>
+        <v>2012.841606086435</v>
       </c>
       <c r="U43" t="n">
-        <v>1764.245100514894</v>
+        <v>1734.453494509205</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.289592385324</v>
+        <v>1447.497986379635</v>
       </c>
       <c r="W43" t="n">
-        <v>1205.263187971616</v>
+        <v>1175.471581965927</v>
       </c>
       <c r="X43" t="n">
-        <v>959.8714333050284</v>
+        <v>1175.471581965927</v>
       </c>
       <c r="Y43" t="n">
-        <v>732.4517626191366</v>
+        <v>948.0519112800353</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1001.137344290047</v>
+        <v>690.095348447103</v>
       </c>
       <c r="C44" t="n">
-        <v>562.9948714734699</v>
+        <v>690.095348447103</v>
       </c>
       <c r="D44" t="n">
-        <v>562.9948714734699</v>
+        <v>690.095348447103</v>
       </c>
       <c r="E44" t="n">
-        <v>562.9948714734699</v>
+        <v>445.2630919503559</v>
       </c>
       <c r="F44" t="n">
-        <v>562.9948714734699</v>
+        <v>445.2630919503559</v>
       </c>
       <c r="G44" t="n">
-        <v>316.0408058245994</v>
+        <v>45.69992680446558</v>
       </c>
       <c r="H44" t="n">
         <v>45.69992680446558</v>
       </c>
       <c r="I44" t="n">
-        <v>114.6148551045026</v>
+        <v>114.6148551045027</v>
       </c>
       <c r="J44" t="n">
-        <v>267.2311295548511</v>
+        <v>267.2311295548512</v>
       </c>
       <c r="K44" t="n">
-        <v>495.9633632680252</v>
+        <v>495.9633632680253</v>
       </c>
       <c r="L44" t="n">
-        <v>779.725925076869</v>
+        <v>779.7259250768692</v>
       </c>
       <c r="M44" t="n">
         <v>1095.46645028142</v>
@@ -7666,7 +7666,7 @@
         <v>1719.285106846706</v>
       </c>
       <c r="P44" t="n">
-        <v>1977.862240958291</v>
+        <v>1977.862240958292</v>
       </c>
       <c r="Q44" t="n">
         <v>2172.042899967114</v>
@@ -7675,25 +7675,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S44" t="n">
-        <v>2243.151923142516</v>
+        <v>2284.996340223279</v>
       </c>
       <c r="T44" t="n">
-        <v>2031.115947441082</v>
+        <v>2284.996340223279</v>
       </c>
       <c r="U44" t="n">
-        <v>1772.040418056567</v>
+        <v>2284.996340223279</v>
       </c>
       <c r="V44" t="n">
-        <v>1409.423467990393</v>
+        <v>1922.379390157106</v>
       </c>
       <c r="W44" t="n">
-        <v>1409.423467990393</v>
+        <v>1517.523935568139</v>
       </c>
       <c r="X44" t="n">
-        <v>1409.423467990393</v>
+        <v>1098.38147214745</v>
       </c>
       <c r="Y44" t="n">
-        <v>1001.137344290047</v>
+        <v>690.095348447103</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1150.182976562428</v>
+        <v>541.4095308847899</v>
       </c>
       <c r="C45" t="n">
-        <v>1043.72651539907</v>
+        <v>434.9530697214322</v>
       </c>
       <c r="D45" t="n">
-        <v>948.6362265456235</v>
+        <v>339.8627808679855</v>
       </c>
       <c r="E45" t="n">
-        <v>854.5158118725772</v>
+        <v>245.7423661949392</v>
       </c>
       <c r="F45" t="n">
-        <v>771.1319734887388</v>
+        <v>162.3585278111008</v>
       </c>
       <c r="G45" t="n">
-        <v>686.7285167292852</v>
+        <v>77.95507105164712</v>
       </c>
       <c r="H45" t="n">
-        <v>654.4733724821036</v>
+        <v>45.69992680446558</v>
       </c>
       <c r="I45" t="n">
-        <v>687.5982542963817</v>
+        <v>104.8884817792011</v>
       </c>
       <c r="J45" t="n">
-        <v>778.4954618328608</v>
+        <v>195.7856893156803</v>
       </c>
       <c r="K45" t="n">
-        <v>933.8532674069081</v>
+        <v>351.1434948897275</v>
       </c>
       <c r="L45" t="n">
-        <v>1142.75100934523</v>
+        <v>560.0412368280499</v>
       </c>
       <c r="M45" t="n">
-        <v>1386.524821117312</v>
+        <v>803.815048600131</v>
       </c>
       <c r="N45" t="n">
-        <v>1636.750600315384</v>
+        <v>1054.040827798203</v>
       </c>
       <c r="O45" t="n">
-        <v>1865.658302707631</v>
+        <v>1309.958755473577</v>
       </c>
       <c r="P45" t="n">
-        <v>2049.376914736934</v>
+        <v>1493.677367502881</v>
       </c>
       <c r="Q45" t="n">
-        <v>2172.18794152964</v>
+        <v>1616.488394295588</v>
       </c>
       <c r="R45" t="n">
-        <v>2284.996340223279</v>
+        <v>1676.222894545641</v>
       </c>
       <c r="S45" t="n">
-        <v>2239.774304629667</v>
+        <v>1631.000858952029</v>
       </c>
       <c r="T45" t="n">
-        <v>2113.552330712194</v>
+        <v>1504.778885034556</v>
       </c>
       <c r="U45" t="n">
-        <v>1937.280364828897</v>
+        <v>1328.506919151259</v>
       </c>
       <c r="V45" t="n">
-        <v>1738.162846890896</v>
+        <v>1129.389401213258</v>
       </c>
       <c r="W45" t="n">
-        <v>1552.84009262409</v>
+        <v>944.0666469464522</v>
       </c>
       <c r="X45" t="n">
-        <v>1397.97265686297</v>
+        <v>789.1992111853323</v>
       </c>
       <c r="Y45" t="n">
-        <v>1271.486877642191</v>
+        <v>662.713431964553</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>540.6331439001494</v>
+        <v>922.1112853595254</v>
       </c>
       <c r="C46" t="n">
-        <v>540.6331439001494</v>
+        <v>749.5495738427503</v>
       </c>
       <c r="D46" t="n">
-        <v>540.6331439001494</v>
+        <v>583.671581044273</v>
       </c>
       <c r="E46" t="n">
-        <v>519.7605273606691</v>
+        <v>583.671581044273</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0534733224254</v>
+        <v>406.9645270060292</v>
       </c>
       <c r="G46" t="n">
-        <v>178.2851664587697</v>
+        <v>242.1962201423736</v>
       </c>
       <c r="H46" t="n">
-        <v>45.69992680446558</v>
+        <v>109.6109804880695</v>
       </c>
       <c r="I46" t="n">
         <v>45.69992680446558</v>
@@ -7833,25 +7833,25 @@
         <v>2284.996340223279</v>
       </c>
       <c r="S46" t="n">
-        <v>2284.996340223279</v>
+        <v>2140.097061229099</v>
       </c>
       <c r="T46" t="n">
-        <v>2042.633212092124</v>
+        <v>1897.733933097944</v>
       </c>
       <c r="U46" t="n">
-        <v>1764.245100514894</v>
+        <v>1619.345821520714</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.289592385324</v>
+        <v>1613.375979178113</v>
       </c>
       <c r="W46" t="n">
-        <v>1205.263187971616</v>
+        <v>1341.349574764404</v>
       </c>
       <c r="X46" t="n">
-        <v>959.8714333050284</v>
+        <v>1341.349574764404</v>
       </c>
       <c r="Y46" t="n">
-        <v>732.4517626191366</v>
+        <v>1113.929904078512</v>
       </c>
     </row>
   </sheetData>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O3" t="n">
-        <v>39.64570999510202</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -8136,20 +8136,20 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="N4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8224,13 +8224,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="N5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>41.31500304752734</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>393.6635176571414</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="K8" t="n">
-        <v>393.6635176571415</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>206.8952293143715</v>
       </c>
       <c r="P8" t="n">
         <v>393.6635176571415</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.8952293143711</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8534,10 +8534,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>298.9014626604494</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>298.9014626604492</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>393.6635176571415</v>
       </c>
       <c r="Q9" t="n">
-        <v>393.6635176571415</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8616,10 +8616,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
+        <v>393.6635176571415</v>
+      </c>
+      <c r="M10" t="n">
         <v>393.6635176571414</v>
-      </c>
-      <c r="M10" t="n">
-        <v>279.1881799645707</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821538</v>
+        <v>55.41635408958336</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.60999842786373</v>
+        <v>53.60999842786327</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,10 +8853,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>109.3516484305265</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>443.5351328890628</v>
+        <v>130.4525573115479</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>53.60999842786364</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>53.60999842786327</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>38.78808810037282</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>443.535132889063</v>
+        <v>290.769547389167</v>
       </c>
       <c r="N16" t="n">
-        <v>446.5718852168693</v>
+        <v>446.5718852168695</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>53.60999842786345</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.60999842786327</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>124.7682069962003</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>443.5351328890629</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.5718852168694</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>387.7984765327822</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>53.60999842786373</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>27.28305584154282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>124.7682069962006</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>443.5351328890629</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.5718852168695</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>130.4525573115477</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>532.304403484608</v>
+        <v>92.65320403721626</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>33.73984947178747</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>272.3114263790048</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>151.1481194386102</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>92.65320403721608</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>53.60999842786367</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>27.28305584154305</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>33.73984947178775</v>
+        <v>33.73984947178747</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>151.1481194386104</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>92.65320403721637</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>127.4109948670598</v>
+        <v>272.3114263790048</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>429.9048290155579</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>273.2622661388048</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>263.5158957069707</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>27.28305584154296</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>27.28305584154305</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>33.73984947178747</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>91.18605354465171</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>13.79682783016381</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>443.535132889063</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.5718852168694</v>
+        <v>446.5718852168695</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>145.8691158772217</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>27.28305584154282</v>
       </c>
       <c r="R39" t="n">
-        <v>27.28305584154322</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>386.3243679895293</v>
       </c>
       <c r="M40" t="n">
-        <v>443.5351328890628</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.5718852168693</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>291.3306203262605</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.60999842786413</v>
+        <v>27.28305584154282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>37.31397955711992</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>443.5351328890629</v>
+        <v>130.4525573115477</v>
       </c>
       <c r="N43" t="n">
-        <v>446.5718852168695</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>27.28305584154282</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.60999842786413</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.4525573115478</v>
+        <v>130.4525573115477</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23275,7 +23275,7 @@
         <v>395.5675334944314</v>
       </c>
       <c r="H11" t="n">
-        <v>97.88001139966539</v>
+        <v>267.6374702299324</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.42597290995568</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.9156159444194</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4847740906703</v>
+        <v>116.7437014816588</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>99.28345889348711</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>143.4502862042385</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>24.2051526498073</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>317.1919772988171</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5675334944314</v>
+        <v>61.54094681102936</v>
       </c>
       <c r="H14" t="n">
         <v>267.6374702299324</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.42597290995568</v>
+        <v>41.42597290995566</v>
       </c>
       <c r="T14" t="n">
         <v>209.9156159444194</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4847740906703</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>20.01140584523375</v>
       </c>
       <c r="E16" t="n">
-        <v>156.5821322633815</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.1206237950191</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.4502862042385</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23749,7 +23749,7 @@
         <v>395.5675334944314</v>
       </c>
       <c r="H17" t="n">
-        <v>267.6374702299324</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>256.4847740906703</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>108.6767964331601</v>
       </c>
       <c r="W17" t="n">
-        <v>290.4060618540465</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>61.11738631619812</v>
       </c>
       <c r="D19" t="n">
-        <v>20.01140584523418</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.1206237950191</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>131.2593872577611</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>143.4502862042385</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>311.9526107501711</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.6374702299324</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>41.42597290995568</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.9156159444194</v>
@@ -24028,13 +24028,13 @@
         <v>256.4847740906703</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>258.0368219965316</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>31.35675249316419</v>
       </c>
       <c r="I22" t="n">
-        <v>63.27194314676787</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.9394968498436</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>100.9463870101258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>11.86096752410486</v>
+        <v>119.8571274112869</v>
       </c>
       <c r="H23" t="n">
         <v>267.6374702299324</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>41.42597290995568</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.9156159444194</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4847740906703</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.42597290995568</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.9156159444194</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>227.5063191224235</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>116.4607649910209</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24688,13 +24688,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.1025892791423</v>
       </c>
       <c r="H29" t="n">
         <v>267.6374702299324</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>31.25908187786746</v>
+        <v>209.9156159444194</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4847740906703</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>168.2266411593156</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>12.44751794170878</v>
+        <v>395.5675334944314</v>
       </c>
       <c r="H32" t="n">
-        <v>267.6374702299324</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.9156159444194</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4847740906703</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5675334944314</v>
       </c>
       <c r="H35" t="n">
-        <v>267.6374702299324</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>41.42597290995568</v>
       </c>
       <c r="T35" t="n">
-        <v>124.7485126853334</v>
+        <v>209.9156159444194</v>
       </c>
       <c r="U35" t="n">
         <v>256.4847740906703</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>80.62218261256248</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.1206237950191</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.2593872577611</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>143.4502862042385</v>
+        <v>54.50050478508291</v>
       </c>
       <c r="T37" t="n">
-        <v>23.85261668651162</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>177.7408936044071</v>
+        <v>267.6374702299324</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>41.42597290995568</v>
       </c>
       <c r="T38" t="n">
         <v>209.9156159444194</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4847740906703</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25456,7 +25456,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>136.8866978635415</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25554,7 +25554,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>161.9331143223895</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.13714607992353</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.2593872577611</v>
       </c>
       <c r="I40" t="n">
-        <v>63.27194314676787</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.4502862042385</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>404.8279349087342</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>341.0786268221621</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.6374702299324</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.9156159444194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4847740906703</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25794,19 +25794,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>23.85261668651177</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.1206237950191</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.2593872577611</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>63.27194314676787</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>143.4502862042385</v>
+        <v>113.9565962586062</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>187.0530634615081</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>151.0830085020496</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.6374702299324</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>41.42597290995568</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.9156159444194</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4847740906703</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>147.3965333376846</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>63.27194314676787</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>143.4502862042385</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.1758091290989</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356191.3935057323</v>
+        <v>356191.3935057324</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356191.3935057323</v>
+        <v>356191.3935057324</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356191.3935057323</v>
+        <v>356191.3935057324</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>458369.0646770602</v>
+        <v>458369.0646770601</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>458369.0646770601</v>
+        <v>458369.0646770602</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>458369.0646770601</v>
+        <v>458369.06467706</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>356191.3935057324</v>
+        <v>356191.3935057322</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>356191.3935057323</v>
+        <v>356191.3935057322</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="C2" t="n">
+        <v>335092.0749315052</v>
+      </c>
+      <c r="D2" t="n">
         <v>335092.0749315054</v>
-      </c>
-      <c r="D2" t="n">
-        <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
         <v>191750.1292836808</v>
@@ -26328,7 +26328,7 @@
         <v>191750.1292836808</v>
       </c>
       <c r="G2" t="n">
-        <v>191750.1292836809</v>
+        <v>191750.1292836808</v>
       </c>
       <c r="H2" t="n">
         <v>191750.1292836808</v>
@@ -26352,7 +26352,7 @@
         <v>191750.1292836808</v>
       </c>
       <c r="O2" t="n">
-        <v>191750.1292836808</v>
+        <v>191750.1292836807</v>
       </c>
       <c r="P2" t="n">
         <v>191750.1292836808</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89176.23791106181</v>
+        <v>89176.23791106183</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>299855.2806251332</v>
       </c>
       <c r="C4" t="n">
-        <v>299855.2806251331</v>
+        <v>299855.2806251332</v>
       </c>
       <c r="D4" t="n">
         <v>247321.0529285626</v>
       </c>
       <c r="E4" t="n">
-        <v>11497.41122277743</v>
+        <v>11497.41122277742</v>
       </c>
       <c r="F4" t="n">
-        <v>11497.41122277743</v>
+        <v>11497.41122277742</v>
       </c>
       <c r="G4" t="n">
         <v>11497.41122277742</v>
       </c>
       <c r="H4" t="n">
-        <v>11497.41122277743</v>
+        <v>11497.41122277742</v>
       </c>
       <c r="I4" t="n">
         <v>33461.116706762</v>
@@ -26453,13 +26453,13 @@
         <v>11497.41122277743</v>
       </c>
       <c r="N4" t="n">
-        <v>11497.41122277743</v>
+        <v>11497.41122277742</v>
       </c>
       <c r="O4" t="n">
-        <v>11497.41122277743</v>
+        <v>11497.41122277742</v>
       </c>
       <c r="P4" t="n">
-        <v>11497.41122277743</v>
+        <v>11497.41122277742</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>36139.55218528966</v>
       </c>
       <c r="D5" t="n">
-        <v>57562.34187355419</v>
+        <v>57562.3418735542</v>
       </c>
       <c r="E5" t="n">
-        <v>44581.39131167995</v>
+        <v>44581.39131167997</v>
       </c>
       <c r="F5" t="n">
-        <v>44581.39131167995</v>
+        <v>44581.39131167997</v>
       </c>
       <c r="G5" t="n">
         <v>44581.39131167995</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14748.36564521409</v>
+        <v>-14748.3656452142</v>
       </c>
       <c r="C6" t="n">
-        <v>-902.7578789173713</v>
+        <v>-902.7578789176623</v>
       </c>
       <c r="D6" t="n">
-        <v>-79241.33896379598</v>
+        <v>-79241.33896379583</v>
       </c>
       <c r="E6" t="n">
-        <v>-280336.9186360475</v>
+        <v>-280910.2864186388</v>
       </c>
       <c r="F6" t="n">
-        <v>135671.3267492234</v>
+        <v>135097.9589666323</v>
       </c>
       <c r="G6" t="n">
-        <v>135671.3267492235</v>
+        <v>135097.9589666321</v>
       </c>
       <c r="H6" t="n">
-        <v>135671.3267492234</v>
+        <v>135097.9589666321</v>
       </c>
       <c r="I6" t="n">
-        <v>100310.7081291365</v>
+        <v>99915.83643066499</v>
       </c>
       <c r="J6" t="n">
-        <v>136724.6171399932</v>
+        <v>136329.7454415217</v>
       </c>
       <c r="K6" t="n">
-        <v>147534.4397973604</v>
+        <v>147139.568098889</v>
       </c>
       <c r="L6" t="n">
-        <v>58358.20188629863</v>
+        <v>57963.33018782715</v>
       </c>
       <c r="M6" t="n">
-        <v>135671.3267492235</v>
+        <v>135097.9589666321</v>
       </c>
       <c r="N6" t="n">
-        <v>135671.3267492234</v>
+        <v>135097.9589666321</v>
       </c>
       <c r="O6" t="n">
-        <v>135671.3267492234</v>
+        <v>135097.9589666321</v>
       </c>
       <c r="P6" t="n">
-        <v>135671.3267492234</v>
+        <v>135097.9589666321</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>451.8094926736747</v>
+        <v>451.8094926736748</v>
       </c>
       <c r="F3" t="n">
-        <v>451.8094926736747</v>
+        <v>451.8094926736748</v>
       </c>
       <c r="G3" t="n">
         <v>451.8094926736748</v>
@@ -26764,7 +26764,7 @@
         <v>451.8094926736747</v>
       </c>
       <c r="K3" t="n">
-        <v>451.8094926736746</v>
+        <v>451.8094926736747</v>
       </c>
       <c r="L3" t="n">
         <v>451.8094926736747</v>
@@ -26795,13 +26795,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6635176571414</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="E4" t="n">
-        <v>571.2490850558198</v>
+        <v>571.2490850558199</v>
       </c>
       <c r="F4" t="n">
-        <v>571.2490850558198</v>
+        <v>571.2490850558199</v>
       </c>
       <c r="G4" t="n">
         <v>571.2490850558198</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>451.8094926736747</v>
+        <v>451.8094926736748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>352.348514609614</v>
+        <v>352.3485146096141</v>
       </c>
       <c r="E4" t="n">
         <v>177.5855673986784</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>352.348514609614</v>
+        <v>352.3485146096141</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27263,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>352.348514609614</v>
+        <v>352.3485146096141</v>
       </c>
       <c r="M4" t="n">
         <v>177.5855673986784</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27514,19 +27514,19 @@
         <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>147.0792720398758</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27545,13 +27545,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27602,10 +27602,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>227.7512255173414</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.7552192947707</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>57.74913128065019</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647795</v>
+        <v>48.14098415221586</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -27779,22 +27779,22 @@
         <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>122.6203591769033</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>51.38309504880932</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>207.0303972730672</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>183.8304709315055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>76.34049687127526</v>
+        <v>243.7986613433947</v>
       </c>
       <c r="E8" t="n">
-        <v>35.77347973614633</v>
+        <v>35.77347973614627</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>29.92523763774284</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>3.720335405827257</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27915,7 +27915,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>7.143382385935581</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -27940,13 +27940,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>25.69877401387039</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27982,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>56.05710136408557</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>117.9215608988015</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28064,16 +28064,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>279.1254215662927</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.816319568537384</v>
+        <v>1.816319568537385</v>
       </c>
       <c r="H11" t="n">
         <v>18.60138278128349</v>
       </c>
       <c r="I11" t="n">
-        <v>70.02366016603757</v>
+        <v>70.02366016603759</v>
       </c>
       <c r="J11" t="n">
         <v>154.15785298015</v>
@@ -31767,10 +31767,10 @@
         <v>231.0426603163375</v>
       </c>
       <c r="L11" t="n">
-        <v>286.6288503119635</v>
+        <v>286.6288503119636</v>
       </c>
       <c r="M11" t="n">
-        <v>318.9298234389402</v>
+        <v>318.9298234389403</v>
       </c>
       <c r="N11" t="n">
         <v>324.0904414130471</v>
@@ -31779,7 +31779,7 @@
         <v>306.0294137034035</v>
       </c>
       <c r="P11" t="n">
-        <v>261.1890243551367</v>
+        <v>261.1890243551368</v>
       </c>
       <c r="Q11" t="n">
         <v>196.1420798068916</v>
@@ -31791,7 +31791,7 @@
         <v>41.38938216804569</v>
       </c>
       <c r="T11" t="n">
-        <v>7.950938911272404</v>
+        <v>7.950938911272405</v>
       </c>
       <c r="U11" t="n">
         <v>0.1453055654829907</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9718166446188475</v>
+        <v>0.9718166446188476</v>
       </c>
       <c r="H12" t="n">
         <v>9.385702857239924</v>
       </c>
       <c r="I12" t="n">
-        <v>33.45947658007874</v>
+        <v>33.45947658007875</v>
       </c>
       <c r="J12" t="n">
-        <v>91.81536114795875</v>
+        <v>91.81536114795877</v>
       </c>
       <c r="K12" t="n">
-        <v>156.9270763374215</v>
+        <v>156.9270763374216</v>
       </c>
       <c r="L12" t="n">
         <v>211.0078201397195</v>
@@ -31855,7 +31855,7 @@
         <v>252.7533123212853</v>
       </c>
       <c r="O12" t="n">
-        <v>231.2199014063097</v>
+        <v>231.2199014063098</v>
       </c>
       <c r="P12" t="n">
         <v>185.5743555851552</v>
@@ -31864,7 +31864,7 @@
         <v>124.051542214855</v>
       </c>
       <c r="R12" t="n">
-        <v>60.33787904045794</v>
+        <v>60.33787904045795</v>
       </c>
       <c r="S12" t="n">
         <v>18.05106793842463</v>
@@ -31873,7 +31873,7 @@
         <v>3.917103054406669</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06393530556702946</v>
+        <v>0.06393530556702948</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8147384294115444</v>
+        <v>0.8147384294115445</v>
       </c>
       <c r="H13" t="n">
-        <v>7.243765308768101</v>
+        <v>7.243765308768102</v>
       </c>
       <c r="I13" t="n">
         <v>24.50140658630355</v>
       </c>
       <c r="J13" t="n">
-        <v>57.60200695939619</v>
+        <v>57.6020069593962</v>
       </c>
       <c r="K13" t="n">
-        <v>94.65779207163214</v>
+        <v>94.65779207163216</v>
       </c>
       <c r="L13" t="n">
         <v>121.1293843145127</v>
@@ -31931,19 +31931,19 @@
         <v>127.7139521667569</v>
       </c>
       <c r="N13" t="n">
-        <v>124.6771998389503</v>
+        <v>124.6771998389504</v>
       </c>
       <c r="O13" t="n">
         <v>115.1595736408245</v>
       </c>
       <c r="P13" t="n">
-        <v>98.53890968082894</v>
+        <v>98.53890968082895</v>
       </c>
       <c r="Q13" t="n">
         <v>68.22323339372488</v>
       </c>
       <c r="R13" t="n">
-        <v>36.63360247154089</v>
+        <v>36.6336024715409</v>
       </c>
       <c r="S13" t="n">
         <v>14.19866881074482</v>
@@ -31952,7 +31952,7 @@
         <v>3.481155107485689</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04444027796790247</v>
+        <v>0.04444027796790248</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.816319568537384</v>
+        <v>1.816319568537385</v>
       </c>
       <c r="H14" t="n">
-        <v>18.60138278128349</v>
+        <v>18.6013827812835</v>
       </c>
       <c r="I14" t="n">
-        <v>70.02366016603757</v>
+        <v>70.0236601660376</v>
       </c>
       <c r="J14" t="n">
         <v>154.15785298015</v>
       </c>
       <c r="K14" t="n">
-        <v>231.0426603163375</v>
+        <v>231.0426603163376</v>
       </c>
       <c r="L14" t="n">
-        <v>286.6288503119635</v>
+        <v>286.6288503119636</v>
       </c>
       <c r="M14" t="n">
-        <v>318.9298234389402</v>
+        <v>318.9298234389403</v>
       </c>
       <c r="N14" t="n">
-        <v>324.0904414130471</v>
+        <v>324.0904414130472</v>
       </c>
       <c r="O14" t="n">
         <v>306.0294137034035</v>
       </c>
       <c r="P14" t="n">
-        <v>261.1890243551367</v>
+        <v>261.1890243551368</v>
       </c>
       <c r="Q14" t="n">
         <v>196.1420798068916</v>
@@ -32025,13 +32025,13 @@
         <v>114.0943840971366</v>
       </c>
       <c r="S14" t="n">
-        <v>41.38938216804569</v>
+        <v>41.3893821680457</v>
       </c>
       <c r="T14" t="n">
-        <v>7.950938911272404</v>
+        <v>7.950938911272406</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1453055654829907</v>
+        <v>0.1453055654829908</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9718166446188475</v>
+        <v>0.9718166446188478</v>
       </c>
       <c r="H15" t="n">
-        <v>9.385702857239924</v>
+        <v>9.385702857239925</v>
       </c>
       <c r="I15" t="n">
-        <v>33.45947658007874</v>
+        <v>33.45947658007875</v>
       </c>
       <c r="J15" t="n">
-        <v>91.81536114795875</v>
+        <v>91.81536114795878</v>
       </c>
       <c r="K15" t="n">
-        <v>156.9270763374215</v>
+        <v>156.9270763374216</v>
       </c>
       <c r="L15" t="n">
-        <v>211.0078201397195</v>
+        <v>211.0078201397196</v>
       </c>
       <c r="M15" t="n">
         <v>246.2361735071527</v>
@@ -32092,7 +32092,7 @@
         <v>252.7533123212853</v>
       </c>
       <c r="O15" t="n">
-        <v>231.2199014063097</v>
+        <v>231.2199014063098</v>
       </c>
       <c r="P15" t="n">
         <v>185.5743555851552</v>
@@ -32101,16 +32101,16 @@
         <v>124.051542214855</v>
       </c>
       <c r="R15" t="n">
-        <v>60.33787904045794</v>
+        <v>60.33787904045796</v>
       </c>
       <c r="S15" t="n">
-        <v>18.05106793842463</v>
+        <v>18.05106793842464</v>
       </c>
       <c r="T15" t="n">
-        <v>3.917103054406669</v>
+        <v>3.91710305440667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06393530556702946</v>
+        <v>0.06393530556702948</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8147384294115444</v>
+        <v>0.8147384294115446</v>
       </c>
       <c r="H16" t="n">
-        <v>7.243765308768101</v>
+        <v>7.243765308768102</v>
       </c>
       <c r="I16" t="n">
         <v>24.50140658630355</v>
       </c>
       <c r="J16" t="n">
-        <v>57.60200695939619</v>
+        <v>57.60200695939621</v>
       </c>
       <c r="K16" t="n">
-        <v>94.65779207163214</v>
+        <v>94.65779207163217</v>
       </c>
       <c r="L16" t="n">
-        <v>121.1293843145127</v>
+        <v>121.1293843145128</v>
       </c>
       <c r="M16" t="n">
         <v>127.7139521667569</v>
       </c>
       <c r="N16" t="n">
-        <v>124.6771998389503</v>
+        <v>124.6771998389504</v>
       </c>
       <c r="O16" t="n">
-        <v>115.1595736408245</v>
+        <v>115.1595736408246</v>
       </c>
       <c r="P16" t="n">
-        <v>98.53890968082894</v>
+        <v>98.53890968082897</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.22323339372488</v>
+        <v>68.2232333937249</v>
       </c>
       <c r="R16" t="n">
-        <v>36.63360247154089</v>
+        <v>36.6336024715409</v>
       </c>
       <c r="S16" t="n">
         <v>14.19866881074482</v>
       </c>
       <c r="T16" t="n">
-        <v>3.481155107485689</v>
+        <v>3.48115510748569</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04444027796790247</v>
+        <v>0.04444027796790249</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>154.15785298015</v>
       </c>
       <c r="K29" t="n">
-        <v>231.0426603163374</v>
+        <v>231.0426603163375</v>
       </c>
       <c r="L29" t="n">
         <v>286.6288503119635</v>
@@ -33198,7 +33198,7 @@
         <v>324.0904414130471</v>
       </c>
       <c r="O29" t="n">
-        <v>306.0294137034034</v>
+        <v>306.0294137034035</v>
       </c>
       <c r="P29" t="n">
         <v>261.1890243551367</v>
@@ -33213,7 +33213,7 @@
         <v>41.38938216804569</v>
       </c>
       <c r="T29" t="n">
-        <v>7.950938911272403</v>
+        <v>7.950938911272404</v>
       </c>
       <c r="U29" t="n">
         <v>0.1453055654829907</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9718166446188474</v>
+        <v>0.9718166446188475</v>
       </c>
       <c r="H30" t="n">
-        <v>9.385702857239922</v>
+        <v>9.385702857239924</v>
       </c>
       <c r="I30" t="n">
         <v>33.45947658007874</v>
@@ -33271,10 +33271,10 @@
         <v>211.0078201397195</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2361735071526</v>
+        <v>246.2361735071527</v>
       </c>
       <c r="N30" t="n">
-        <v>252.7533123212852</v>
+        <v>252.7533123212853</v>
       </c>
       <c r="O30" t="n">
         <v>231.2199014063097</v>
@@ -33286,7 +33286,7 @@
         <v>124.051542214855</v>
       </c>
       <c r="R30" t="n">
-        <v>60.33787904045793</v>
+        <v>60.33787904045794</v>
       </c>
       <c r="S30" t="n">
         <v>18.05106793842463</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8147384294115443</v>
+        <v>0.8147384294115444</v>
       </c>
       <c r="H31" t="n">
-        <v>7.2437653087681</v>
+        <v>7.243765308768101</v>
       </c>
       <c r="I31" t="n">
-        <v>24.50140658630354</v>
+        <v>24.50140658630355</v>
       </c>
       <c r="J31" t="n">
-        <v>57.60200695939618</v>
+        <v>57.60200695939619</v>
       </c>
       <c r="K31" t="n">
-        <v>94.65779207163213</v>
+        <v>94.65779207163214</v>
       </c>
       <c r="L31" t="n">
         <v>121.1293843145127</v>
@@ -33359,13 +33359,13 @@
         <v>115.1595736408245</v>
       </c>
       <c r="P31" t="n">
-        <v>98.53890968082892</v>
+        <v>98.53890968082894</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.22323339372487</v>
+        <v>68.22323339372488</v>
       </c>
       <c r="R31" t="n">
-        <v>36.63360247154088</v>
+        <v>36.63360247154089</v>
       </c>
       <c r="S31" t="n">
         <v>14.19866881074482</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="P2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="O3" t="n">
-        <v>39.64570999510202</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -34856,20 +34856,20 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="N4" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
@@ -34877,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="N5" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>41.31500304752734</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>41.31500304752736</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="P7" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>393.6635176571414</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="K8" t="n">
-        <v>393.6635176571415</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>206.8952293143715</v>
       </c>
       <c r="P8" t="n">
         <v>393.6635176571415</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.8952293143711</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>170.8626916697542</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>298.9014626604494</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>393.6635176571415</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>298.9014626604492</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>393.6635176571415</v>
       </c>
       <c r="Q9" t="n">
-        <v>393.6635176571415</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
+        <v>393.6635176571415</v>
+      </c>
+      <c r="M10" t="n">
         <v>393.6635176571414</v>
-      </c>
-      <c r="M10" t="n">
-        <v>279.1881799645707</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>169.8916917821539</v>
+        <v>55.41635408958336</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>69.61103868690617</v>
+        <v>69.61103868690618</v>
       </c>
       <c r="J11" t="n">
         <v>154.15785298015</v>
       </c>
       <c r="K11" t="n">
-        <v>231.0426603163374</v>
+        <v>231.0426603163375</v>
       </c>
       <c r="L11" t="n">
-        <v>286.6288503119637</v>
+        <v>286.6288503119636</v>
       </c>
       <c r="M11" t="n">
-        <v>318.92982343894</v>
+        <v>318.9298234389403</v>
       </c>
       <c r="N11" t="n">
         <v>324.0904414130471</v>
@@ -35430,7 +35430,7 @@
         <v>261.1890243551368</v>
       </c>
       <c r="Q11" t="n">
-        <v>196.1420798068916</v>
+        <v>196.1420798068914</v>
       </c>
       <c r="R11" t="n">
         <v>114.0943840971368</v>
@@ -35488,13 +35488,13 @@
         <v>33.45947658007875</v>
       </c>
       <c r="J12" t="n">
-        <v>91.81536114795875</v>
+        <v>91.81536114795877</v>
       </c>
       <c r="K12" t="n">
-        <v>156.9270763374215</v>
+        <v>156.9270763374216</v>
       </c>
       <c r="L12" t="n">
-        <v>211.0078201397195</v>
+        <v>211.0078201397196</v>
       </c>
       <c r="M12" t="n">
         <v>246.2361735071527</v>
@@ -35503,7 +35503,7 @@
         <v>252.7533123212852</v>
       </c>
       <c r="O12" t="n">
-        <v>231.2199014063096</v>
+        <v>231.2199014063099</v>
       </c>
       <c r="P12" t="n">
         <v>185.5743555851552</v>
@@ -35512,7 +35512,7 @@
         <v>124.0515422148551</v>
       </c>
       <c r="R12" t="n">
-        <v>113.9478774683216</v>
+        <v>113.9478774683212</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>145.0562343984769</v>
+        <v>145.0562343984768</v>
       </c>
       <c r="K13" t="n">
         <v>372.1915845677287</v>
       </c>
       <c r="L13" t="n">
-        <v>230.4810327450392</v>
+        <v>543.5636083225544</v>
       </c>
       <c r="M13" t="n">
-        <v>571.2490850558197</v>
+        <v>258.1665094783048</v>
       </c>
       <c r="N13" t="n">
         <v>124.6771998389504</v>
       </c>
       <c r="O13" t="n">
-        <v>115.1595736408244</v>
+        <v>115.1595736408246</v>
       </c>
       <c r="P13" t="n">
         <v>449.5559742973358</v>
@@ -35591,7 +35591,7 @@
         <v>238.1149251758789</v>
       </c>
       <c r="R13" t="n">
-        <v>15.42995938985905</v>
+        <v>15.42995938985906</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>69.61103868690617</v>
+        <v>69.6110386869062</v>
       </c>
       <c r="J14" t="n">
         <v>154.15785298015</v>
       </c>
       <c r="K14" t="n">
-        <v>231.0426603163375</v>
+        <v>231.0426603163376</v>
       </c>
       <c r="L14" t="n">
-        <v>286.6288503119635</v>
+        <v>286.6288503119636</v>
       </c>
       <c r="M14" t="n">
         <v>318.9298234389403</v>
       </c>
       <c r="N14" t="n">
-        <v>324.0904414130471</v>
+        <v>324.0904414130473</v>
       </c>
       <c r="O14" t="n">
         <v>306.0294137034034</v>
@@ -35667,10 +35667,10 @@
         <v>261.1890243551368</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.1420798068916</v>
+        <v>196.1420798068918</v>
       </c>
       <c r="R14" t="n">
-        <v>114.0943840971368</v>
+        <v>114.0943840971363</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>33.45947658007875</v>
       </c>
       <c r="J15" t="n">
-        <v>91.81536114795875</v>
+        <v>91.8153611479588</v>
       </c>
       <c r="K15" t="n">
-        <v>210.5370747652852</v>
+        <v>156.9270763374216</v>
       </c>
       <c r="L15" t="n">
-        <v>211.0078201397195</v>
+        <v>211.0078201397196</v>
       </c>
       <c r="M15" t="n">
         <v>246.2361735071527</v>
@@ -35740,7 +35740,7 @@
         <v>252.7533123212852</v>
       </c>
       <c r="O15" t="n">
-        <v>231.2199014063096</v>
+        <v>231.2199014063099</v>
       </c>
       <c r="P15" t="n">
         <v>185.5743555851552</v>
@@ -35749,7 +35749,7 @@
         <v>124.0515422148551</v>
       </c>
       <c r="R15" t="n">
-        <v>60.33787904045789</v>
+        <v>113.9478774683212</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>145.0562343984769</v>
+        <v>57.6020069593962</v>
       </c>
       <c r="K16" t="n">
-        <v>133.445880172005</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L16" t="n">
-        <v>543.5636083225543</v>
+        <v>121.1293843145127</v>
       </c>
       <c r="M16" t="n">
-        <v>571.2490850558198</v>
+        <v>418.4834995559239</v>
       </c>
       <c r="N16" t="n">
-        <v>571.2490850558197</v>
+        <v>571.2490850558199</v>
       </c>
       <c r="O16" t="n">
-        <v>115.1595736408244</v>
+        <v>539.0679061921189</v>
       </c>
       <c r="P16" t="n">
         <v>98.53890968082897</v>
@@ -35828,7 +35828,7 @@
         <v>68.22323339372497</v>
       </c>
       <c r="R16" t="n">
-        <v>15.42995938985905</v>
+        <v>15.42995938985906</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>324.0904414130471</v>
       </c>
       <c r="O17" t="n">
-        <v>306.0294137034034</v>
+        <v>306.0294137034036</v>
       </c>
       <c r="P17" t="n">
         <v>261.1890243551368</v>
@@ -35965,10 +35965,10 @@
         <v>91.81536114795875</v>
       </c>
       <c r="K18" t="n">
-        <v>210.537074765285</v>
+        <v>156.9270763374216</v>
       </c>
       <c r="L18" t="n">
-        <v>211.0078201397196</v>
+        <v>211.0078201397195</v>
       </c>
       <c r="M18" t="n">
         <v>246.2361735071527</v>
@@ -35977,7 +35977,7 @@
         <v>252.7533123212853</v>
       </c>
       <c r="O18" t="n">
-        <v>231.2199014063096</v>
+        <v>231.2199014063099</v>
       </c>
       <c r="P18" t="n">
         <v>185.5743555851552</v>
@@ -35986,7 +35986,7 @@
         <v>124.0515422148551</v>
       </c>
       <c r="R18" t="n">
-        <v>60.33787904045789</v>
+        <v>113.9478774683212</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>57.6020069593962</v>
       </c>
       <c r="K19" t="n">
-        <v>94.65779207163216</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L19" t="n">
-        <v>245.8975913107131</v>
+        <v>543.5636083225543</v>
       </c>
       <c r="M19" t="n">
-        <v>571.2490850558198</v>
+        <v>127.7139521667568</v>
       </c>
       <c r="N19" t="n">
-        <v>571.2490850558198</v>
+        <v>124.6771998389504</v>
       </c>
       <c r="O19" t="n">
-        <v>539.0679061921189</v>
+        <v>502.9580501736068</v>
       </c>
       <c r="P19" t="n">
-        <v>98.53890968082897</v>
+        <v>449.5559742973358</v>
       </c>
       <c r="Q19" t="n">
         <v>68.22323339372497</v>
@@ -36123,10 +36123,10 @@
         <v>154.15785298015</v>
       </c>
       <c r="K20" t="n">
-        <v>231.0426603163375</v>
+        <v>231.0426603163376</v>
       </c>
       <c r="L20" t="n">
-        <v>286.6288503119635</v>
+        <v>286.6288503119636</v>
       </c>
       <c r="M20" t="n">
         <v>318.9298234389403</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>33.45947658007875</v>
+        <v>59.78641916639955</v>
       </c>
       <c r="J21" t="n">
         <v>91.81536114795875</v>
@@ -36205,7 +36205,7 @@
         <v>156.9270763374215</v>
       </c>
       <c r="L21" t="n">
-        <v>211.0078201397195</v>
+        <v>211.0078201397196</v>
       </c>
       <c r="M21" t="n">
         <v>246.2361735071527</v>
@@ -36220,10 +36220,10 @@
         <v>185.5743555851552</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.6615406427188</v>
+        <v>124.0515422148551</v>
       </c>
       <c r="R21" t="n">
-        <v>60.33787904045789</v>
+        <v>87.62093488200071</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>57.60200695939618</v>
+        <v>145.0562343984769</v>
       </c>
       <c r="K22" t="n">
-        <v>94.65779207163214</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L22" t="n">
-        <v>245.8975913107133</v>
+        <v>543.5636083225544</v>
       </c>
       <c r="M22" t="n">
-        <v>571.2490850558198</v>
+        <v>127.7139521667568</v>
       </c>
       <c r="N22" t="n">
-        <v>571.2490850558198</v>
+        <v>124.6771998389504</v>
       </c>
       <c r="O22" t="n">
-        <v>539.0679061921187</v>
+        <v>245.6121309523721</v>
       </c>
       <c r="P22" t="n">
-        <v>98.53890968082897</v>
+        <v>449.5559742973358</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.22323339372497</v>
+        <v>238.1149251758789</v>
       </c>
       <c r="R22" t="n">
         <v>15.42995938985905</v>
@@ -36357,13 +36357,13 @@
         <v>69.61103868690617</v>
       </c>
       <c r="J23" t="n">
-        <v>154.15785298015</v>
+        <v>593.8090524275418</v>
       </c>
       <c r="K23" t="n">
-        <v>231.0426603163375</v>
+        <v>231.0426603163374</v>
       </c>
       <c r="L23" t="n">
-        <v>286.6288503119636</v>
+        <v>286.6288503119634</v>
       </c>
       <c r="M23" t="n">
         <v>318.9298234389403</v>
@@ -36372,13 +36372,13 @@
         <v>324.0904414130471</v>
       </c>
       <c r="O23" t="n">
-        <v>306.0294137034034</v>
+        <v>306.0294137034036</v>
       </c>
       <c r="P23" t="n">
-        <v>261.1890243551368</v>
+        <v>261.1890243551366</v>
       </c>
       <c r="Q23" t="n">
-        <v>728.4464832914996</v>
+        <v>288.7952838441079</v>
       </c>
       <c r="R23" t="n">
         <v>284.9570757668912</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>57.60200695939618</v>
+        <v>145.0562343984769</v>
       </c>
       <c r="K25" t="n">
-        <v>128.3976415434196</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L25" t="n">
-        <v>543.5636083225543</v>
+        <v>121.1293843145128</v>
       </c>
       <c r="M25" t="n">
         <v>591.8390705313155</v>
@@ -36533,10 +36533,10 @@
         <v>539.0679061921189</v>
       </c>
       <c r="P25" t="n">
-        <v>449.555974297336</v>
+        <v>370.8503360598338</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.22323339372497</v>
+        <v>238.1149251758789</v>
       </c>
       <c r="R25" t="n">
         <v>15.42995938985905</v>
@@ -36594,13 +36594,13 @@
         <v>69.61103868690617</v>
       </c>
       <c r="J26" t="n">
-        <v>593.8090524275418</v>
+        <v>305.3059724187601</v>
       </c>
       <c r="K26" t="n">
         <v>231.0426603163374</v>
       </c>
       <c r="L26" t="n">
-        <v>286.6288503119634</v>
+        <v>286.6288503119636</v>
       </c>
       <c r="M26" t="n">
         <v>318.9298234389403</v>
@@ -36609,16 +36609,16 @@
         <v>324.0904414130471</v>
       </c>
       <c r="O26" t="n">
-        <v>306.0294137034036</v>
+        <v>306.0294137034034</v>
       </c>
       <c r="P26" t="n">
-        <v>353.8422283923528</v>
+        <v>261.1890243551368</v>
       </c>
       <c r="Q26" t="n">
-        <v>196.1420798068916</v>
+        <v>748.1610555226439</v>
       </c>
       <c r="R26" t="n">
-        <v>284.9570757668912</v>
+        <v>114.0943840971368</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>33.45947658007875</v>
+        <v>59.78641916639955</v>
       </c>
       <c r="J27" t="n">
         <v>91.81536114795875</v>
@@ -36679,13 +36679,13 @@
         <v>156.9270763374215</v>
       </c>
       <c r="L27" t="n">
-        <v>211.0078201397196</v>
+        <v>211.0078201397195</v>
       </c>
       <c r="M27" t="n">
         <v>246.2361735071527</v>
       </c>
       <c r="N27" t="n">
-        <v>306.3633107491489</v>
+        <v>252.7533123212852</v>
       </c>
       <c r="O27" t="n">
         <v>231.2199014063096</v>
@@ -36697,7 +36697,7 @@
         <v>124.0515422148551</v>
       </c>
       <c r="R27" t="n">
-        <v>60.33787904045789</v>
+        <v>87.62093488200094</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>57.60200695939618</v>
       </c>
       <c r="K28" t="n">
-        <v>128.3976415434199</v>
+        <v>128.3976415434196</v>
       </c>
       <c r="L28" t="n">
         <v>543.5636083225543</v>
@@ -36767,7 +36767,7 @@
         <v>571.403263634551</v>
       </c>
       <c r="O28" t="n">
-        <v>539.0679061921187</v>
+        <v>539.0679061921189</v>
       </c>
       <c r="P28" t="n">
         <v>449.555974297336</v>
@@ -36831,16 +36831,16 @@
         <v>69.61103868690617</v>
       </c>
       <c r="J29" t="n">
-        <v>305.3059724187603</v>
+        <v>593.8090524275418</v>
       </c>
       <c r="K29" t="n">
-        <v>231.0426603163374</v>
+        <v>323.6958643535538</v>
       </c>
       <c r="L29" t="n">
-        <v>286.6288503119634</v>
+        <v>286.6288503119636</v>
       </c>
       <c r="M29" t="n">
-        <v>318.9298234389402</v>
+        <v>318.9298234389403</v>
       </c>
       <c r="N29" t="n">
         <v>324.0904414130471</v>
@@ -36849,13 +36849,13 @@
         <v>306.0294137034034</v>
       </c>
       <c r="P29" t="n">
-        <v>261.1890243551368</v>
+        <v>261.1890243551366</v>
       </c>
       <c r="Q29" t="n">
-        <v>748.1610555226439</v>
+        <v>196.1420798068916</v>
       </c>
       <c r="R29" t="n">
-        <v>114.0943840971368</v>
+        <v>284.9570757668912</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>145.0562343984769</v>
       </c>
       <c r="K31" t="n">
-        <v>94.65779207163214</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L31" t="n">
-        <v>543.5636083225543</v>
+        <v>121.1293843145128</v>
       </c>
       <c r="M31" t="n">
-        <v>591.8390705313154</v>
+        <v>591.8390705313155</v>
       </c>
       <c r="N31" t="n">
         <v>571.403263634551</v>
       </c>
       <c r="O31" t="n">
-        <v>539.0679061921192</v>
+        <v>539.0679061921189</v>
       </c>
       <c r="P31" t="n">
-        <v>225.9499045478888</v>
+        <v>370.8503360598338</v>
       </c>
       <c r="Q31" t="n">
         <v>238.1149251758789</v>
@@ -37068,28 +37068,28 @@
         <v>69.61103868690617</v>
       </c>
       <c r="J32" t="n">
-        <v>154.15785298015</v>
+        <v>593.8090524275418</v>
       </c>
       <c r="K32" t="n">
-        <v>231.0426603163375</v>
+        <v>231.0426603163374</v>
       </c>
       <c r="L32" t="n">
-        <v>286.6288503119636</v>
+        <v>286.6288503119634</v>
       </c>
       <c r="M32" t="n">
-        <v>748.8346524544982</v>
+        <v>318.9298234389403</v>
       </c>
       <c r="N32" t="n">
-        <v>597.3527075518518</v>
+        <v>324.0904414130471</v>
       </c>
       <c r="O32" t="n">
-        <v>306.0294137034034</v>
+        <v>306.0294137034036</v>
       </c>
       <c r="P32" t="n">
         <v>261.1890243551366</v>
       </c>
       <c r="Q32" t="n">
-        <v>196.1420798068916</v>
+        <v>459.6579755138623</v>
       </c>
       <c r="R32" t="n">
         <v>114.0943840971368</v>
@@ -37147,7 +37147,7 @@
         <v>59.78641916639955</v>
       </c>
       <c r="J33" t="n">
-        <v>91.81536114795875</v>
+        <v>119.0984169895017</v>
       </c>
       <c r="K33" t="n">
         <v>156.9270763374215</v>
@@ -37171,7 +37171,7 @@
         <v>124.0515422148551</v>
       </c>
       <c r="R33" t="n">
-        <v>87.62093488200094</v>
+        <v>60.33787904045789</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>57.60200695939618</v>
+        <v>145.0562343984769</v>
       </c>
       <c r="K34" t="n">
-        <v>128.3976415434196</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L34" t="n">
-        <v>543.5636083225543</v>
+        <v>212.3154378591645</v>
       </c>
       <c r="M34" t="n">
         <v>591.8390705313155</v>
@@ -37308,10 +37308,10 @@
         <v>154.15785298015</v>
       </c>
       <c r="K35" t="n">
-        <v>231.0426603163374</v>
+        <v>231.0426603163375</v>
       </c>
       <c r="L35" t="n">
-        <v>286.6288503119636</v>
+        <v>286.6288503119634</v>
       </c>
       <c r="M35" t="n">
         <v>318.9298234389403</v>
@@ -37320,7 +37320,7 @@
         <v>324.0904414130471</v>
       </c>
       <c r="O35" t="n">
-        <v>306.0294137034036</v>
+        <v>306.0294137034034</v>
       </c>
       <c r="P35" t="n">
         <v>261.1890243551368</v>
@@ -37329,7 +37329,7 @@
         <v>196.1420798068916</v>
       </c>
       <c r="R35" t="n">
-        <v>114.0943840971363</v>
+        <v>114.0943840971368</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>145.0562343984769</v>
+        <v>57.60200695939618</v>
       </c>
       <c r="K37" t="n">
-        <v>372.1915845677287</v>
+        <v>94.65779207163214</v>
       </c>
       <c r="L37" t="n">
-        <v>134.9262121446766</v>
+        <v>543.5636083225543</v>
       </c>
       <c r="M37" t="n">
+        <v>127.7139521667569</v>
+      </c>
+      <c r="N37" t="n">
         <v>571.2490850558198</v>
       </c>
-      <c r="N37" t="n">
-        <v>571.2490850558197</v>
-      </c>
       <c r="O37" t="n">
-        <v>115.1595736408244</v>
+        <v>539.0679061921189</v>
       </c>
       <c r="P37" t="n">
-        <v>98.53890968082897</v>
+        <v>244.4080255580507</v>
       </c>
       <c r="Q37" t="n">
-        <v>238.1149251758789</v>
+        <v>68.22323339372497</v>
       </c>
       <c r="R37" t="n">
         <v>15.42995938985905</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>59.78641916639958</v>
+        <v>59.78641916639955</v>
       </c>
       <c r="J39" t="n">
-        <v>91.81536114795881</v>
+        <v>91.81536114795875</v>
       </c>
       <c r="K39" t="n">
-        <v>156.9270763374216</v>
+        <v>156.9270763374215</v>
       </c>
       <c r="L39" t="n">
         <v>211.0078201397196</v>
@@ -37639,13 +37639,13 @@
         <v>231.2199014063096</v>
       </c>
       <c r="P39" t="n">
-        <v>185.574355585155</v>
+        <v>185.5743555851552</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.0515422148551</v>
+        <v>151.3345980563979</v>
       </c>
       <c r="R39" t="n">
-        <v>87.62093488200117</v>
+        <v>60.33787904045789</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>145.0562343984769</v>
+        <v>57.60200695939618</v>
       </c>
       <c r="K40" t="n">
-        <v>94.65779207163214</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L40" t="n">
-        <v>121.1293843145127</v>
+        <v>507.453752304042</v>
       </c>
       <c r="M40" t="n">
-        <v>571.2490850558197</v>
+        <v>127.7139521667569</v>
       </c>
       <c r="N40" t="n">
-        <v>571.2490850558197</v>
+        <v>124.6771998389504</v>
       </c>
       <c r="O40" t="n">
-        <v>115.1595736408244</v>
+        <v>539.0679061921189</v>
       </c>
       <c r="P40" t="n">
-        <v>389.8695300070895</v>
+        <v>449.5559742973358</v>
       </c>
       <c r="Q40" t="n">
-        <v>238.1149251758789</v>
+        <v>68.22323339372497</v>
       </c>
       <c r="R40" t="n">
         <v>15.42995938985905</v>
@@ -37779,13 +37779,13 @@
         <v>69.61103868690617</v>
       </c>
       <c r="J41" t="n">
-        <v>154.1578529801498</v>
+        <v>154.15785298015</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0426603163376</v>
+        <v>231.0426603163375</v>
       </c>
       <c r="L41" t="n">
-        <v>286.6288503119636</v>
+        <v>286.6288503119635</v>
       </c>
       <c r="M41" t="n">
         <v>318.9298234389403</v>
@@ -37800,7 +37800,7 @@
         <v>261.1890243551368</v>
       </c>
       <c r="Q41" t="n">
-        <v>196.1420798068916</v>
+        <v>196.1420798068914</v>
       </c>
       <c r="R41" t="n">
         <v>114.0943840971368</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>33.45947658007879</v>
+        <v>59.78641916639955</v>
       </c>
       <c r="J42" t="n">
-        <v>91.8153611479587</v>
+        <v>91.81536114795875</v>
       </c>
       <c r="K42" t="n">
-        <v>156.9270763374216</v>
+        <v>156.9270763374215</v>
       </c>
       <c r="L42" t="n">
         <v>211.0078201397196</v>
@@ -37876,13 +37876,13 @@
         <v>231.2199014063096</v>
       </c>
       <c r="P42" t="n">
-        <v>185.574355585155</v>
+        <v>185.5743555851552</v>
       </c>
       <c r="Q42" t="n">
         <v>124.0515422148551</v>
       </c>
       <c r="R42" t="n">
-        <v>113.9478774683221</v>
+        <v>87.62093488200071</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>145.0562343984769</v>
       </c>
       <c r="K43" t="n">
-        <v>131.9717716287521</v>
+        <v>372.1915845677287</v>
       </c>
       <c r="L43" t="n">
-        <v>121.1293843145127</v>
+        <v>543.5636083225544</v>
       </c>
       <c r="M43" t="n">
-        <v>571.2490850558198</v>
+        <v>258.1665094783045</v>
       </c>
       <c r="N43" t="n">
-        <v>571.2490850558198</v>
+        <v>124.6771998389504</v>
       </c>
       <c r="O43" t="n">
-        <v>539.0679061921187</v>
+        <v>115.1595736408244</v>
       </c>
       <c r="P43" t="n">
-        <v>98.53890968082897</v>
+        <v>449.5559742973358</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.22323339372497</v>
+        <v>238.1149251758789</v>
       </c>
       <c r="R43" t="n">
         <v>15.42995938985905</v>
@@ -38019,25 +38019,25 @@
         <v>154.15785298015</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0426603163375</v>
+        <v>231.0426603163374</v>
       </c>
       <c r="L44" t="n">
-        <v>286.6288503119635</v>
+        <v>286.6288503119637</v>
       </c>
       <c r="M44" t="n">
-        <v>318.9298234389403</v>
+        <v>318.92982343894</v>
       </c>
       <c r="N44" t="n">
         <v>324.0904414130471</v>
       </c>
       <c r="O44" t="n">
-        <v>306.0294137034034</v>
+        <v>306.0294137034036</v>
       </c>
       <c r="P44" t="n">
         <v>261.1890243551368</v>
       </c>
       <c r="Q44" t="n">
-        <v>196.1420798068916</v>
+        <v>196.1420798068914</v>
       </c>
       <c r="R44" t="n">
         <v>114.0943840971368</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>33.45947658007879</v>
+        <v>59.78641916639955</v>
       </c>
       <c r="J45" t="n">
-        <v>91.8153611479587</v>
+        <v>91.81536114795875</v>
       </c>
       <c r="K45" t="n">
-        <v>156.9270763374216</v>
+        <v>156.9270763374215</v>
       </c>
       <c r="L45" t="n">
         <v>211.0078201397196</v>
@@ -38110,16 +38110,16 @@
         <v>252.7533123212852</v>
       </c>
       <c r="O45" t="n">
-        <v>231.2199014063096</v>
+        <v>258.5029572478525</v>
       </c>
       <c r="P45" t="n">
-        <v>185.574355585155</v>
+        <v>185.5743555851552</v>
       </c>
       <c r="Q45" t="n">
         <v>124.0515422148551</v>
       </c>
       <c r="R45" t="n">
-        <v>113.9478774683221</v>
+        <v>60.33787904045789</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>372.1915845677287</v>
       </c>
       <c r="L46" t="n">
-        <v>543.5636083225542</v>
+        <v>543.5636083225544</v>
       </c>
       <c r="M46" t="n">
         <v>127.7139521667568</v>
@@ -38189,7 +38189,7 @@
         <v>124.6771998389504</v>
       </c>
       <c r="O46" t="n">
-        <v>245.6121309523724</v>
+        <v>245.6121309523721</v>
       </c>
       <c r="P46" t="n">
         <v>449.5559742973358</v>
